--- a/data/pca/factorExposure/factorExposure_2011-07-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-07-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -704,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,39 +747,63 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.02387335120809242</v>
+        <v>0.01945006678266744</v>
       </c>
       <c r="C2">
-        <v>-0.005336950288857521</v>
+        <v>-0.001894870997828381</v>
       </c>
       <c r="D2">
-        <v>0.05446502602730294</v>
+        <v>0.002596952971865834</v>
       </c>
       <c r="E2">
-        <v>-0.02560774056619356</v>
+        <v>-0.03647934538907221</v>
       </c>
       <c r="F2">
-        <v>-0.01167228462979511</v>
+        <v>0.005757333523239091</v>
       </c>
       <c r="G2">
-        <v>0.04424360674860581</v>
+        <v>0.02161404344469557</v>
       </c>
       <c r="H2">
-        <v>0.03026089435107765</v>
+        <v>0.02171993026232836</v>
       </c>
       <c r="I2">
-        <v>0.03464531561545355</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.02499521721318214</v>
+      </c>
+      <c r="J2">
+        <v>-0.005562174403127857</v>
+      </c>
+      <c r="K2">
+        <v>-0.08472776607244292</v>
+      </c>
+      <c r="L2">
+        <v>-0.07333050323438099</v>
+      </c>
+      <c r="M2">
+        <v>-0.0676256026643296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -793,39 +829,63 @@
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.06894552869144077</v>
+        <v>0.1046707216857165</v>
       </c>
       <c r="C4">
-        <v>0.05790745982578299</v>
+        <v>0.0772536148138227</v>
       </c>
       <c r="D4">
-        <v>0.03881401504391305</v>
+        <v>0.01799651890066665</v>
       </c>
       <c r="E4">
-        <v>-0.04192994239678902</v>
+        <v>-0.04778395188877315</v>
       </c>
       <c r="F4">
-        <v>0.03556564423817519</v>
+        <v>0.09830724708873731</v>
       </c>
       <c r="G4">
-        <v>-0.003155627120601072</v>
+        <v>-0.008254212276871056</v>
       </c>
       <c r="H4">
-        <v>-0.0117568710110672</v>
+        <v>-0.08384905307881486</v>
       </c>
       <c r="I4">
-        <v>0.006690531529763334</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.01428503978290697</v>
+      </c>
+      <c r="J4">
+        <v>0.0515525530662773</v>
+      </c>
+      <c r="K4">
+        <v>0.06564263659735944</v>
+      </c>
+      <c r="L4">
+        <v>-0.02572363841947918</v>
+      </c>
+      <c r="M4">
+        <v>-0.0260671353628949</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -851,329 +911,473 @@
       <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>-0.1255433671491463</v>
+        <v>0.1281628105480074</v>
       </c>
       <c r="C6">
-        <v>0.03139597508892148</v>
+        <v>0.05103796872564918</v>
       </c>
       <c r="D6">
-        <v>0.0669943199140625</v>
+        <v>0.001721776698264359</v>
       </c>
       <c r="E6">
-        <v>-0.1034613815753391</v>
+        <v>-0.03359424836057895</v>
       </c>
       <c r="F6">
-        <v>0.02910721132275796</v>
+        <v>0.03448077937836576</v>
       </c>
       <c r="G6">
-        <v>-0.1053353993167968</v>
+        <v>-0.1829692906451966</v>
       </c>
       <c r="H6">
-        <v>0.09256295165931697</v>
+        <v>-0.02865600757302886</v>
       </c>
       <c r="I6">
-        <v>-0.2747905991725855</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>-0.05916186303546726</v>
+      </c>
+      <c r="J6">
+        <v>0.4301336161867923</v>
+      </c>
+      <c r="K6">
+        <v>-0.0338646444064185</v>
+      </c>
+      <c r="L6">
+        <v>0.06037291001299861</v>
+      </c>
+      <c r="M6">
+        <v>0.09158541945917691</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>-0.06577752080572283</v>
+        <v>0.07040617207882875</v>
       </c>
       <c r="C7">
-        <v>0.05108816939489947</v>
+        <v>0.07474017235745112</v>
       </c>
       <c r="D7">
-        <v>0.05688776291108782</v>
+        <v>0.002073365495571016</v>
       </c>
       <c r="E7">
-        <v>-0.03095545500775316</v>
+        <v>-0.04397924562506153</v>
       </c>
       <c r="F7">
-        <v>0.02267809839364635</v>
+        <v>0.01833124919080142</v>
       </c>
       <c r="G7">
-        <v>-0.04125875550910951</v>
+        <v>0.006070687584376945</v>
       </c>
       <c r="H7">
-        <v>0.002294416556063848</v>
+        <v>-0.05887961798068336</v>
       </c>
       <c r="I7">
-        <v>0.04812274108463628</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>-0.009313110924753665</v>
+      </c>
+      <c r="J7">
+        <v>-0.0477597018376484</v>
+      </c>
+      <c r="K7">
+        <v>0.07911244064642627</v>
+      </c>
+      <c r="L7">
+        <v>-0.007514858970509726</v>
+      </c>
+      <c r="M7">
+        <v>-0.01210678508475095</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>-0.02554665378788705</v>
+        <v>0.03420609883080655</v>
       </c>
       <c r="C8">
-        <v>0.01643525637341301</v>
+        <v>0.01152074191324897</v>
       </c>
       <c r="D8">
-        <v>0.03923791226489582</v>
+        <v>0.01618122569528112</v>
       </c>
       <c r="E8">
-        <v>-0.05191228993790352</v>
+        <v>-0.05049534375319662</v>
       </c>
       <c r="F8">
-        <v>-0.02931279541549417</v>
+        <v>0.0982969575179421</v>
       </c>
       <c r="G8">
-        <v>-0.007019970331293641</v>
+        <v>-0.01252983940239636</v>
       </c>
       <c r="H8">
-        <v>0.04228352513994144</v>
+        <v>-0.06602800599042238</v>
       </c>
       <c r="I8">
-        <v>0.04864482209764381</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.03166330970447571</v>
+      </c>
+      <c r="J8">
+        <v>0.04204578699972032</v>
+      </c>
+      <c r="K8">
+        <v>0.04216971808483545</v>
+      </c>
+      <c r="L8">
+        <v>-0.06163199567841207</v>
+      </c>
+      <c r="M8">
+        <v>-0.01566065627714481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>-0.07013184771053482</v>
+        <v>0.08382832712818782</v>
       </c>
       <c r="C9">
-        <v>0.07602171289949254</v>
+        <v>0.06943674618882512</v>
       </c>
       <c r="D9">
-        <v>0.04290718883035296</v>
+        <v>-0.0003176742697141634</v>
       </c>
       <c r="E9">
-        <v>-0.02650560545856852</v>
+        <v>-0.03089439757360958</v>
       </c>
       <c r="F9">
-        <v>0.02111327427989</v>
+        <v>0.1003919459214289</v>
       </c>
       <c r="G9">
-        <v>0.004136716856190994</v>
+        <v>0.002092257000894294</v>
       </c>
       <c r="H9">
-        <v>-0.01035454139761014</v>
+        <v>-0.0791976474340238</v>
       </c>
       <c r="I9">
-        <v>0.02021413286327763</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>-0.005030465290089108</v>
+      </c>
+      <c r="J9">
+        <v>0.02739148806002559</v>
+      </c>
+      <c r="K9">
+        <v>0.03117139012634335</v>
+      </c>
+      <c r="L9">
+        <v>-0.01532496036479423</v>
+      </c>
+      <c r="M9">
+        <v>0.001848088143626051</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>-0.06437154474572079</v>
+        <v>0.1077891487507446</v>
       </c>
       <c r="C10">
-        <v>-0.1355522717343678</v>
+        <v>-0.1686880431023426</v>
       </c>
       <c r="D10">
-        <v>0.05724726433235442</v>
+        <v>0.009400392288996806</v>
       </c>
       <c r="E10">
-        <v>-0.03455670193958079</v>
+        <v>-0.04703781700485843</v>
       </c>
       <c r="F10">
-        <v>-0.003904103599583915</v>
+        <v>-0.01455913764245551</v>
       </c>
       <c r="G10">
-        <v>-0.04422969725982186</v>
+        <v>-0.006455722911547564</v>
       </c>
       <c r="H10">
-        <v>0.03712721620302967</v>
+        <v>0.004529426950096154</v>
       </c>
       <c r="I10">
-        <v>-0.009147667346461455</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>-0.0375812861599394</v>
+      </c>
+      <c r="J10">
+        <v>-0.05855799365258255</v>
+      </c>
+      <c r="K10">
+        <v>-0.009799456038121724</v>
+      </c>
+      <c r="L10">
+        <v>0.02293500895413354</v>
+      </c>
+      <c r="M10">
+        <v>0.04387382886884612</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>-0.06241262403359545</v>
+        <v>0.06611606890817016</v>
       </c>
       <c r="C11">
-        <v>0.0898005002300909</v>
+        <v>0.07097232347049048</v>
       </c>
       <c r="D11">
-        <v>0.03690420348649465</v>
+        <v>-0.03088383094791191</v>
       </c>
       <c r="E11">
-        <v>0.001133831980405308</v>
+        <v>-0.01832194909512492</v>
       </c>
       <c r="F11">
-        <v>-0.0233342123973335</v>
+        <v>0.1046613426147469</v>
       </c>
       <c r="G11">
-        <v>0.03386764956753471</v>
+        <v>0.01991067617383485</v>
       </c>
       <c r="H11">
-        <v>-0.006386218301466121</v>
+        <v>-0.05229245109793741</v>
       </c>
       <c r="I11">
-        <v>0.07237318158843545</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>-0.02408716214273144</v>
+      </c>
+      <c r="J11">
+        <v>-0.08149923655137026</v>
+      </c>
+      <c r="K11">
+        <v>-0.02913072631597575</v>
+      </c>
+      <c r="L11">
+        <v>-0.004579028212711369</v>
+      </c>
+      <c r="M11">
+        <v>0.06063507117181155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>-0.0566968425218205</v>
+        <v>0.06944562784446337</v>
       </c>
       <c r="C12">
-        <v>0.05493205713404606</v>
+        <v>0.06105187558978309</v>
       </c>
       <c r="D12">
-        <v>0.01402918157009062</v>
+        <v>-0.02946791170142275</v>
       </c>
       <c r="E12">
-        <v>-0.009387392542017982</v>
+        <v>-0.01076142957307334</v>
       </c>
       <c r="F12">
-        <v>0.01426162361748061</v>
+        <v>0.1140915211858576</v>
       </c>
       <c r="G12">
-        <v>-0.01048626887966224</v>
+        <v>0.01109451853879463</v>
       </c>
       <c r="H12">
-        <v>-0.01372939149804247</v>
+        <v>-0.0658273177190063</v>
       </c>
       <c r="I12">
-        <v>0.0754054407145664</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>-0.02638189581806655</v>
+      </c>
+      <c r="J12">
+        <v>-0.06843156743589479</v>
+      </c>
+      <c r="K12">
+        <v>-0.007749133455406319</v>
+      </c>
+      <c r="L12">
+        <v>-0.05592724489507415</v>
+      </c>
+      <c r="M12">
+        <v>0.09425530758693623</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>-0.05685391680031249</v>
+        <v>0.04741367325630644</v>
       </c>
       <c r="C13">
-        <v>0.01789810531618746</v>
+        <v>0.03470458667769073</v>
       </c>
       <c r="D13">
-        <v>0.0135702518328912</v>
+        <v>0.02269693826950098</v>
       </c>
       <c r="E13">
-        <v>-0.009229089801248494</v>
+        <v>-0.01273182389056652</v>
       </c>
       <c r="F13">
-        <v>-0.004497032732999064</v>
+        <v>0.04768434534650463</v>
       </c>
       <c r="G13">
-        <v>0.03762131095017555</v>
+        <v>0.03115863570082903</v>
       </c>
       <c r="H13">
-        <v>-0.04709065084811577</v>
+        <v>-0.02980043541493639</v>
       </c>
       <c r="I13">
-        <v>0.01868784210681963</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>-0.001527630977279136</v>
+      </c>
+      <c r="J13">
+        <v>0.0126044418434163</v>
+      </c>
+      <c r="K13">
+        <v>0.1071647627593118</v>
+      </c>
+      <c r="L13">
+        <v>-0.03742696347426961</v>
+      </c>
+      <c r="M13">
+        <v>0.004386131507516839</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>-0.04073596821348328</v>
+        <v>0.04690859322698081</v>
       </c>
       <c r="C14">
-        <v>0.02193564650571762</v>
+        <v>0.02853874086082253</v>
       </c>
       <c r="D14">
-        <v>0.01695833737154024</v>
+        <v>-0.010002165587148</v>
       </c>
       <c r="E14">
-        <v>-0.005705571452835097</v>
+        <v>-0.01392533772995795</v>
       </c>
       <c r="F14">
-        <v>0.04876713234449329</v>
+        <v>0.04846888721879607</v>
       </c>
       <c r="G14">
-        <v>-0.01294505291993835</v>
+        <v>0.04097958059439467</v>
       </c>
       <c r="H14">
-        <v>0.0435538946855181</v>
+        <v>-0.0605651162614544</v>
       </c>
       <c r="I14">
-        <v>-0.03837156645786725</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>-0.0007417723433973445</v>
+      </c>
+      <c r="J14">
+        <v>0.04283081523187163</v>
+      </c>
+      <c r="K14">
+        <v>0.06134640545192734</v>
+      </c>
+      <c r="L14">
+        <v>0.006051269443208367</v>
+      </c>
+      <c r="M14">
+        <v>-0.02472585355836666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>-0.03614157682708061</v>
+        <v>0.0306975071075733</v>
       </c>
       <c r="C15">
-        <v>-0.002217342648111454</v>
+        <v>0.01014692970632485</v>
       </c>
       <c r="D15">
-        <v>-0.005266181629294709</v>
+        <v>0.05903000208844338</v>
       </c>
       <c r="E15">
-        <v>-0.02399698713492645</v>
+        <v>-0.004346939492879544</v>
       </c>
       <c r="F15">
-        <v>0.02390594834310356</v>
+        <v>0.002862908940806621</v>
       </c>
       <c r="G15">
-        <v>0.001474442778402741</v>
+        <v>-0.02214598783788644</v>
       </c>
       <c r="H15">
-        <v>-0.01327879600505715</v>
+        <v>-0.02692224819048442</v>
       </c>
       <c r="I15">
-        <v>-0.00847016047978158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.03494028994765504</v>
+      </c>
+      <c r="J15">
+        <v>0.04453267736359309</v>
+      </c>
+      <c r="K15">
+        <v>0.05979241612577211</v>
+      </c>
+      <c r="L15">
+        <v>0.01818674084293383</v>
+      </c>
+      <c r="M15">
+        <v>0.001555496149685938</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>-0.04814173257162534</v>
+        <v>0.06957980800167129</v>
       </c>
       <c r="C16">
-        <v>0.08464949120273575</v>
+        <v>0.07710030413549243</v>
       </c>
       <c r="D16">
-        <v>0.02845394743588493</v>
+        <v>-0.02000612754951701</v>
       </c>
       <c r="E16">
-        <v>-0.01902294451949779</v>
+        <v>-0.02109998052360638</v>
       </c>
       <c r="F16">
-        <v>0.02382322544306233</v>
+        <v>0.1036360260823738</v>
       </c>
       <c r="G16">
-        <v>0.02219830707726329</v>
+        <v>0.02433326764247086</v>
       </c>
       <c r="H16">
-        <v>0.007930112123846979</v>
+        <v>-0.07458503264875066</v>
       </c>
       <c r="I16">
-        <v>0.09873645818426408</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>-0.03414866258227623</v>
+      </c>
+      <c r="J16">
+        <v>-0.07325215894952115</v>
+      </c>
+      <c r="K16">
+        <v>-0.001835642300464187</v>
+      </c>
+      <c r="L16">
+        <v>-0.02594735889615607</v>
+      </c>
+      <c r="M16">
+        <v>0.03769161791161613</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1199,10 +1403,22 @@
       <c r="I17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1228,10 +1444,22 @@
       <c r="I18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1257,213 +1485,309 @@
       <c r="I19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>-0.03874286710472115</v>
+        <v>0.04202977812412006</v>
       </c>
       <c r="C20">
-        <v>0.0426378578574278</v>
+        <v>0.03021629923657787</v>
       </c>
       <c r="D20">
-        <v>0.01933836991771799</v>
+        <v>0.0218306366097677</v>
       </c>
       <c r="E20">
-        <v>-0.01018227368230544</v>
+        <v>-0.01916444624380823</v>
       </c>
       <c r="F20">
-        <v>0.02992966550006683</v>
+        <v>0.04866075117898611</v>
       </c>
       <c r="G20">
-        <v>0.02418836123758324</v>
+        <v>0.02926753846542815</v>
       </c>
       <c r="H20">
-        <v>-0.004889018706575126</v>
+        <v>-0.06333698030574586</v>
       </c>
       <c r="I20">
-        <v>0.0357184699937974</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>-0.0202638135167554</v>
+      </c>
+      <c r="J20">
+        <v>0.004074672821374822</v>
+      </c>
+      <c r="K20">
+        <v>0.0439420661211059</v>
+      </c>
+      <c r="L20">
+        <v>-0.0561215505088206</v>
+      </c>
+      <c r="M20">
+        <v>0.02174368282121811</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>-0.008762599007634229</v>
+        <v>0.02447611094042121</v>
       </c>
       <c r="C21">
-        <v>-0.001417064608736319</v>
+        <v>0.01368526778126164</v>
       </c>
       <c r="D21">
-        <v>-0.006440909151256491</v>
+        <v>0.01630619253734077</v>
       </c>
       <c r="E21">
-        <v>-0.09085901560984906</v>
+        <v>-0.01407186012581749</v>
       </c>
       <c r="F21">
-        <v>-0.03645897735881083</v>
+        <v>0.05497295207023998</v>
       </c>
       <c r="G21">
-        <v>-0.0809982369192796</v>
+        <v>-0.09887116094944924</v>
       </c>
       <c r="H21">
-        <v>-0.03936571369638692</v>
+        <v>-0.03738476028024124</v>
       </c>
       <c r="I21">
-        <v>-0.05282123841619502</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>-0.02740050255706804</v>
+      </c>
+      <c r="J21">
+        <v>0.01574681764092306</v>
+      </c>
+      <c r="K21">
+        <v>0.09979773763410232</v>
+      </c>
+      <c r="L21">
+        <v>0.0674432521029424</v>
+      </c>
+      <c r="M21">
+        <v>0.06375509188015517</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>-0.02331078802878324</v>
+        <v>0.04222709821168717</v>
       </c>
       <c r="C22">
-        <v>0.05017219864926899</v>
+        <v>0.0323087891390975</v>
       </c>
       <c r="D22">
-        <v>-0.1237118189175214</v>
+        <v>0.6544975601584075</v>
       </c>
       <c r="E22">
-        <v>-0.4764778275439149</v>
+        <v>-0.06233169583401053</v>
       </c>
       <c r="F22">
-        <v>0.1788423660590117</v>
+        <v>-0.08161533398777815</v>
       </c>
       <c r="G22">
-        <v>0.02937406811873643</v>
+        <v>0.04430170776217902</v>
       </c>
       <c r="H22">
-        <v>-0.2791254133548144</v>
+        <v>0.04823296999128993</v>
       </c>
       <c r="I22">
-        <v>0.0385127534197748</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>-0.1370766582941775</v>
+      </c>
+      <c r="J22">
+        <v>-0.03589796233763188</v>
+      </c>
+      <c r="K22">
+        <v>-0.009696555168539135</v>
+      </c>
+      <c r="L22">
+        <v>0.0426465038174746</v>
+      </c>
+      <c r="M22">
+        <v>-0.03996665799099591</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>-0.02421113810173107</v>
+        <v>0.04292760748550383</v>
       </c>
       <c r="C23">
-        <v>0.04891717428337364</v>
+        <v>0.03255925581513423</v>
       </c>
       <c r="D23">
-        <v>-0.1232454902767244</v>
+        <v>0.6561265791944386</v>
       </c>
       <c r="E23">
-        <v>-0.4779111901329983</v>
+        <v>-0.06343331050934729</v>
       </c>
       <c r="F23">
-        <v>0.1756223720759615</v>
+        <v>-0.07690518836844315</v>
       </c>
       <c r="G23">
-        <v>0.02886104764776491</v>
+        <v>0.04428102487742897</v>
       </c>
       <c r="H23">
-        <v>-0.2757863096677801</v>
+        <v>0.0491544235425823</v>
       </c>
       <c r="I23">
-        <v>0.03701023065195463</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>-0.1360573236232727</v>
+      </c>
+      <c r="J23">
+        <v>-0.03105340507777466</v>
+      </c>
+      <c r="K23">
+        <v>-0.01357019859842148</v>
+      </c>
+      <c r="L23">
+        <v>0.0427889679896269</v>
+      </c>
+      <c r="M23">
+        <v>-0.04058899598358056</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>-0.06736374901566393</v>
+        <v>0.07539357958500036</v>
       </c>
       <c r="C24">
-        <v>0.0808150175982624</v>
+        <v>0.07484181819660855</v>
       </c>
       <c r="D24">
-        <v>0.04445571290301175</v>
+        <v>-0.01770687026702217</v>
       </c>
       <c r="E24">
-        <v>-0.03269259273577681</v>
+        <v>-0.02437477225477579</v>
       </c>
       <c r="F24">
-        <v>-0.01281279240085826</v>
+        <v>0.1086771264991053</v>
       </c>
       <c r="G24">
-        <v>0.01703908651380688</v>
+        <v>0.01348976317612808</v>
       </c>
       <c r="H24">
-        <v>0.004411999863481705</v>
+        <v>-0.05865619995706241</v>
       </c>
       <c r="I24">
-        <v>0.05804521047321557</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>-0.03557115938140466</v>
+      </c>
+      <c r="J24">
+        <v>-0.05815698341479066</v>
+      </c>
+      <c r="K24">
+        <v>-0.02923531007932445</v>
+      </c>
+      <c r="L24">
+        <v>-0.01570654664835663</v>
+      </c>
+      <c r="M24">
+        <v>0.06648571050634607</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>-0.05875277094231186</v>
+        <v>0.07226771352532389</v>
       </c>
       <c r="C25">
-        <v>0.04080327760534953</v>
+        <v>0.04819436972927312</v>
       </c>
       <c r="D25">
-        <v>0.0375981314572523</v>
+        <v>-0.03086296727713548</v>
       </c>
       <c r="E25">
-        <v>-0.03583038041989072</v>
+        <v>-0.02498358706950145</v>
       </c>
       <c r="F25">
-        <v>0.007053119889988672</v>
+        <v>0.1110028360248822</v>
       </c>
       <c r="G25">
-        <v>0.02884154061886759</v>
+        <v>0.03156168592772511</v>
       </c>
       <c r="H25">
-        <v>0.03184808002379406</v>
+        <v>-0.07524258136615659</v>
       </c>
       <c r="I25">
-        <v>0.03640017074737684</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>-0.0379652701800833</v>
+      </c>
+      <c r="J25">
+        <v>-0.05413198641028164</v>
+      </c>
+      <c r="K25">
+        <v>-0.05009378699114297</v>
+      </c>
+      <c r="L25">
+        <v>-0.03014560793159481</v>
+      </c>
+      <c r="M25">
+        <v>0.05378921529133782</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>-0.03611174188703095</v>
+        <v>0.0412560437225211</v>
       </c>
       <c r="C26">
-        <v>0.02083743930164235</v>
+        <v>0.02085363500402055</v>
       </c>
       <c r="D26">
-        <v>0.03990529055004825</v>
+        <v>0.01178054407074353</v>
       </c>
       <c r="E26">
-        <v>0.002279579029146881</v>
+        <v>0.0004531752951028408</v>
       </c>
       <c r="F26">
-        <v>0.03974660912552269</v>
+        <v>0.03772413298314108</v>
       </c>
       <c r="G26">
-        <v>-0.001630838311576792</v>
+        <v>0.01977970581893459</v>
       </c>
       <c r="H26">
-        <v>-0.02771309989138317</v>
+        <v>-0.03398252311908984</v>
       </c>
       <c r="I26">
-        <v>0.02077734443856637</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>-0.01405084699569102</v>
+      </c>
+      <c r="J26">
+        <v>0.01883161479030096</v>
+      </c>
+      <c r="K26">
+        <v>0.1531690327143311</v>
+      </c>
+      <c r="L26">
+        <v>0.04211230827953936</v>
+      </c>
+      <c r="M26">
+        <v>-0.02082975121747464</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1489,271 +1813,391 @@
       <c r="I27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>-0.1203116160221524</v>
+        <v>0.1445805775226955</v>
       </c>
       <c r="C28">
-        <v>-0.2944717605670786</v>
+        <v>-0.2866905574921788</v>
       </c>
       <c r="D28">
-        <v>0.03041075171118524</v>
+        <v>-0.006048317221636275</v>
       </c>
       <c r="E28">
-        <v>0.00926096087937172</v>
+        <v>-0.02613475465485217</v>
       </c>
       <c r="F28">
-        <v>0.02095970111202511</v>
+        <v>-0.004106698501071484</v>
       </c>
       <c r="G28">
-        <v>-0.06960557304878945</v>
+        <v>-0.02540149321781191</v>
       </c>
       <c r="H28">
-        <v>0.007218111758348899</v>
+        <v>-0.002047896340764855</v>
       </c>
       <c r="I28">
-        <v>0.06701678814827439</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>-0.004638356966102508</v>
+      </c>
+      <c r="J28">
+        <v>0.001958471261777673</v>
+      </c>
+      <c r="K28">
+        <v>0.05303598264366086</v>
+      </c>
+      <c r="L28">
+        <v>0.001373496331168159</v>
+      </c>
+      <c r="M28">
+        <v>-0.03536310889629636</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>-0.04654069232196876</v>
+        <v>0.04467573530587537</v>
       </c>
       <c r="C29">
-        <v>0.01450176518178645</v>
+        <v>0.02366966752031731</v>
       </c>
       <c r="D29">
-        <v>0.009790370663256956</v>
+        <v>-0.0007001387910494919</v>
       </c>
       <c r="E29">
-        <v>-0.03045406078676818</v>
+        <v>-0.01724584082834399</v>
       </c>
       <c r="F29">
-        <v>0.03291051081132206</v>
+        <v>0.04897501437476143</v>
       </c>
       <c r="G29">
-        <v>0.00620162252731499</v>
+        <v>0.05269814816799703</v>
       </c>
       <c r="H29">
-        <v>0.02060020410671069</v>
+        <v>-0.04588815067297786</v>
       </c>
       <c r="I29">
-        <v>0.004776401196896465</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>-0.006946621404768849</v>
+      </c>
+      <c r="J29">
+        <v>0.03055984912941516</v>
+      </c>
+      <c r="K29">
+        <v>0.03863503511434713</v>
+      </c>
+      <c r="L29">
+        <v>-0.002961186380951363</v>
+      </c>
+      <c r="M29">
+        <v>-0.01793938719156866</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>-0.1194543092832995</v>
+        <v>0.09986997462505995</v>
       </c>
       <c r="C30">
-        <v>0.07187672185156108</v>
+        <v>0.06479046009313659</v>
       </c>
       <c r="D30">
-        <v>0.07393727973919752</v>
+        <v>-0.00168144674480702</v>
       </c>
       <c r="E30">
-        <v>-0.0477459903615504</v>
+        <v>-0.03959571829478839</v>
       </c>
       <c r="F30">
-        <v>0.03363966213559205</v>
+        <v>0.1619715904540139</v>
       </c>
       <c r="G30">
-        <v>-0.03369639003703084</v>
+        <v>0.02548072304205064</v>
       </c>
       <c r="H30">
-        <v>0.005020595883114088</v>
+        <v>-0.1079529028643473</v>
       </c>
       <c r="I30">
-        <v>0.07009521744968823</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>-0.2501286177522549</v>
+      </c>
+      <c r="J30">
+        <v>0.01474864519075091</v>
+      </c>
+      <c r="K30">
+        <v>0.229420681191222</v>
+      </c>
+      <c r="L30">
+        <v>-0.154875738141294</v>
+      </c>
+      <c r="M30">
+        <v>-0.1611865108741481</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>-0.04787173773663712</v>
+        <v>0.03498045761139205</v>
       </c>
       <c r="C31">
-        <v>0.02525124171932065</v>
+        <v>0.04468817359956383</v>
       </c>
       <c r="D31">
-        <v>0.006533232552179143</v>
+        <v>0.00602758104476258</v>
       </c>
       <c r="E31">
-        <v>0.005547684011978185</v>
+        <v>0.004367292308195845</v>
       </c>
       <c r="F31">
-        <v>0.03660737316320215</v>
+        <v>0.01522326999085934</v>
       </c>
       <c r="G31">
-        <v>0.01817551211936753</v>
+        <v>0.0434846411655139</v>
       </c>
       <c r="H31">
-        <v>-0.03342395257330225</v>
+        <v>-0.03771879677468132</v>
       </c>
       <c r="I31">
-        <v>-0.004598431939901977</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.02900856856991764</v>
+      </c>
+      <c r="J31">
+        <v>0.00929700807443589</v>
+      </c>
+      <c r="K31">
+        <v>0.01252216849609113</v>
+      </c>
+      <c r="L31">
+        <v>-0.0342963192211276</v>
+      </c>
+      <c r="M31">
+        <v>0.01340777061675794</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>-0.02457075140078179</v>
+        <v>0.04760584974814357</v>
       </c>
       <c r="C32">
-        <v>-0.001310663126904265</v>
+        <v>-0.001908730354845702</v>
       </c>
       <c r="D32">
-        <v>-0.04297588413109139</v>
+        <v>0.0033158622516213</v>
       </c>
       <c r="E32">
-        <v>-0.07385498455395871</v>
+        <v>0.006656854989032486</v>
       </c>
       <c r="F32">
-        <v>-0.002309797156039251</v>
+        <v>0.08724489865989314</v>
       </c>
       <c r="G32">
-        <v>0.03873774599913515</v>
+        <v>-0.005596346771363493</v>
       </c>
       <c r="H32">
-        <v>-0.04825687458574517</v>
+        <v>-0.01064209949597979</v>
       </c>
       <c r="I32">
-        <v>0.09007778084936024</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>0.07781840191560779</v>
+      </c>
+      <c r="J32">
+        <v>-0.0363594520152359</v>
+      </c>
+      <c r="K32">
+        <v>0.04967198864498456</v>
+      </c>
+      <c r="L32">
+        <v>-0.0532683996225617</v>
+      </c>
+      <c r="M32">
+        <v>-0.1134533133931091</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>-0.09850985573039422</v>
+        <v>0.09521602628611829</v>
       </c>
       <c r="C33">
-        <v>0.06053572694356205</v>
+        <v>0.06685027562343232</v>
       </c>
       <c r="D33">
-        <v>0.009503551204652775</v>
+        <v>-0.008938554292620835</v>
       </c>
       <c r="E33">
-        <v>0.001560340113490109</v>
+        <v>0.01746212761629236</v>
       </c>
       <c r="F33">
-        <v>0.03232679916801191</v>
+        <v>0.06471719441738956</v>
       </c>
       <c r="G33">
-        <v>0.03211011790422438</v>
+        <v>0.05086685530229933</v>
       </c>
       <c r="H33">
-        <v>-0.02127337066616791</v>
+        <v>-0.04714994133267955</v>
       </c>
       <c r="I33">
-        <v>0.02900781187413541</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>-0.02049739883120538</v>
+      </c>
+      <c r="J33">
+        <v>0.02399614227978571</v>
+      </c>
+      <c r="K33">
+        <v>0.03354340943509072</v>
+      </c>
+      <c r="L33">
+        <v>0.01483024443475441</v>
+      </c>
+      <c r="M33">
+        <v>0.03416442806659539</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>-0.04979480398801391</v>
+        <v>0.06320465113898538</v>
       </c>
       <c r="C34">
-        <v>0.07826676004758111</v>
+        <v>0.06326854401607288</v>
       </c>
       <c r="D34">
-        <v>0.02466264807726217</v>
+        <v>-0.02809129957627529</v>
       </c>
       <c r="E34">
-        <v>-0.03755207384269361</v>
+        <v>-0.01416759281003017</v>
       </c>
       <c r="F34">
-        <v>0.00878860352491186</v>
+        <v>0.09627618438543441</v>
       </c>
       <c r="G34">
-        <v>0.01368094904171874</v>
+        <v>0.0253043796788599</v>
       </c>
       <c r="H34">
-        <v>0.009428441080719654</v>
+        <v>-0.06357967602743581</v>
       </c>
       <c r="I34">
-        <v>0.05181082416756936</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>-0.02027980766056149</v>
+      </c>
+      <c r="J34">
+        <v>-0.04471572004197224</v>
+      </c>
+      <c r="K34">
+        <v>-0.02414741996283325</v>
+      </c>
+      <c r="L34">
+        <v>-0.02381761686973724</v>
+      </c>
+      <c r="M34">
+        <v>0.06803156732136163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>-0.03788861656950903</v>
+        <v>0.02914150715504354</v>
       </c>
       <c r="C35">
-        <v>0.02495278866368475</v>
+        <v>0.0263958098370198</v>
       </c>
       <c r="D35">
-        <v>0.01167488442496996</v>
+        <v>0.0002718475816443359</v>
       </c>
       <c r="E35">
-        <v>-0.02187780026938571</v>
+        <v>0.0008149023252635691</v>
       </c>
       <c r="F35">
-        <v>0.02534153236682241</v>
+        <v>0.02098917658086737</v>
       </c>
       <c r="G35">
-        <v>0.01785113478129666</v>
+        <v>0.03107479436887725</v>
       </c>
       <c r="H35">
-        <v>-0.03333952838777406</v>
+        <v>-0.05043675803804138</v>
       </c>
       <c r="I35">
-        <v>0.03921920136169137</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>-0.03546557103336229</v>
+      </c>
+      <c r="J35">
+        <v>-0.03332700906819584</v>
+      </c>
+      <c r="K35">
+        <v>0.03909598645009064</v>
+      </c>
+      <c r="L35">
+        <v>-0.03242248693641833</v>
+      </c>
+      <c r="M35">
+        <v>-0.009271999764415647</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>-0.02627789698895378</v>
+        <v>0.029376034608719</v>
       </c>
       <c r="C36">
-        <v>0.01338654319284905</v>
+        <v>0.0176798195337202</v>
       </c>
       <c r="D36">
-        <v>0.02966378432158073</v>
+        <v>0.01240229258790804</v>
       </c>
       <c r="E36">
-        <v>-0.02208036228281939</v>
+        <v>-0.01747318156441339</v>
       </c>
       <c r="F36">
-        <v>0.02487546170888515</v>
+        <v>0.05455433104144691</v>
       </c>
       <c r="G36">
-        <v>0.01832586001460313</v>
+        <v>0.02328796160919184</v>
       </c>
       <c r="H36">
-        <v>-0.01055662199690561</v>
+        <v>-0.05044139380834056</v>
       </c>
       <c r="I36">
-        <v>-0.00671235617408913</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>-0.02015468788576367</v>
+      </c>
+      <c r="J36">
+        <v>0.01684540974959588</v>
+      </c>
+      <c r="K36">
+        <v>0.05534215796600978</v>
+      </c>
+      <c r="L36">
+        <v>0.006628073600818949</v>
+      </c>
+      <c r="M36">
+        <v>0.03308465542453869</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1779,126 +2223,186 @@
       <c r="I37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>-0.04149670322271483</v>
+        <v>0.03221473270624001</v>
       </c>
       <c r="C38">
-        <v>0.03004819658252277</v>
+        <v>0.04799779477283125</v>
       </c>
       <c r="D38">
-        <v>-0.02817829518052787</v>
+        <v>0.02507761232684105</v>
       </c>
       <c r="E38">
-        <v>-0.04094549914260837</v>
+        <v>0.0006635627217520267</v>
       </c>
       <c r="F38">
-        <v>-0.003600498446250292</v>
+        <v>-0.04175616673343355</v>
       </c>
       <c r="G38">
-        <v>0.003116145781479626</v>
+        <v>0.04569215606576462</v>
       </c>
       <c r="H38">
-        <v>-0.04380801536626436</v>
+        <v>0.08744766679974909</v>
       </c>
       <c r="I38">
-        <v>0.04341994651453787</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>-0.04393010822436507</v>
+      </c>
+      <c r="J38">
+        <v>-0.009501124699526761</v>
+      </c>
+      <c r="K38">
+        <v>0.1260942459027274</v>
+      </c>
+      <c r="L38">
+        <v>0.1211064533544733</v>
+      </c>
+      <c r="M38">
+        <v>-0.04845633328324907</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>-0.09436370328816741</v>
+        <v>0.09512246228619904</v>
       </c>
       <c r="C39">
-        <v>0.1070439205794915</v>
+        <v>0.08568250656907606</v>
       </c>
       <c r="D39">
-        <v>0.02152510770162249</v>
+        <v>-0.07739287219839927</v>
       </c>
       <c r="E39">
-        <v>-0.0221129989826022</v>
+        <v>-0.0008387556030025557</v>
       </c>
       <c r="F39">
-        <v>-0.03140476690849567</v>
+        <v>0.139109399607356</v>
       </c>
       <c r="G39">
-        <v>0.0049434930153694</v>
+        <v>0.05258185268433174</v>
       </c>
       <c r="H39">
-        <v>0.01828706362353223</v>
+        <v>-0.08513715209088688</v>
       </c>
       <c r="I39">
-        <v>0.1680908255848671</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>-0.08828578617011057</v>
+      </c>
+      <c r="J39">
+        <v>-0.1688720011549117</v>
+      </c>
+      <c r="K39">
+        <v>-0.01208555011568687</v>
+      </c>
+      <c r="L39">
+        <v>-0.07470572207032676</v>
+      </c>
+      <c r="M39">
+        <v>-0.03368216414122446</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>-0.06008889375101268</v>
+        <v>0.03917149619785853</v>
       </c>
       <c r="C40">
-        <v>0.03198428304968251</v>
+        <v>0.05463564742475414</v>
       </c>
       <c r="D40">
-        <v>-0.0316749117487827</v>
+        <v>0.04838476053767918</v>
       </c>
       <c r="E40">
-        <v>-0.1398281743174534</v>
+        <v>0.01092208444168911</v>
       </c>
       <c r="F40">
-        <v>0.0512325440272574</v>
+        <v>0.1305749466179197</v>
       </c>
       <c r="G40">
-        <v>0.04469414296864969</v>
+        <v>-0.02297363023629869</v>
       </c>
       <c r="H40">
-        <v>0.003094825791108719</v>
+        <v>0.00475636354817511</v>
       </c>
       <c r="I40">
-        <v>0.1908556221048265</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>-0.05794354570676923</v>
+      </c>
+      <c r="J40">
+        <v>-0.07070060553824829</v>
+      </c>
+      <c r="K40">
+        <v>0.1266261472574446</v>
+      </c>
+      <c r="L40">
+        <v>-0.01023554665861575</v>
+      </c>
+      <c r="M40">
+        <v>-0.04074600261238845</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>-0.04075944793075106</v>
+        <v>0.03531890689773344</v>
       </c>
       <c r="C41">
-        <v>0.05175957952475275</v>
+        <v>0.03580392639780073</v>
       </c>
       <c r="D41">
-        <v>0.006864994457547111</v>
+        <v>-0.01839862371152995</v>
       </c>
       <c r="E41">
-        <v>-0.002053991524820748</v>
+        <v>0.002713993137033546</v>
       </c>
       <c r="F41">
-        <v>0.01990810862221</v>
+        <v>0.01652219865156342</v>
       </c>
       <c r="G41">
-        <v>0.0211747240493933</v>
+        <v>0.02738939018241562</v>
       </c>
       <c r="H41">
-        <v>-0.01417349054050456</v>
+        <v>0.005565369551566216</v>
       </c>
       <c r="I41">
-        <v>0.05715653164180687</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>0.004671436217099598</v>
+      </c>
+      <c r="J41">
+        <v>-0.01272226049091636</v>
+      </c>
+      <c r="K41">
+        <v>0.04317384649463468</v>
+      </c>
+      <c r="L41">
+        <v>-0.009570881772768453</v>
+      </c>
+      <c r="M41">
+        <v>0.01174807084594584</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1924,68 +2428,104 @@
       <c r="I42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>-0.05203700635077579</v>
+        <v>0.05077386635659829</v>
       </c>
       <c r="C43">
-        <v>0.04010997141543254</v>
+        <v>0.04851812584057013</v>
       </c>
       <c r="D43">
-        <v>0.02487587008338041</v>
+        <v>0.01217768693355396</v>
       </c>
       <c r="E43">
-        <v>-0.02378253133562752</v>
+        <v>-0.01820206465975414</v>
       </c>
       <c r="F43">
-        <v>0.008718612719463429</v>
+        <v>0.01589225174628182</v>
       </c>
       <c r="G43">
-        <v>0.004571166168231253</v>
+        <v>0.05016894629237436</v>
       </c>
       <c r="H43">
-        <v>-0.05854302670338212</v>
+        <v>0.006504954271095792</v>
       </c>
       <c r="I43">
-        <v>0.002616392215997957</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>-0.005686858429710652</v>
+      </c>
+      <c r="J43">
+        <v>-0.01007464887774819</v>
+      </c>
+      <c r="K43">
+        <v>0.03058198404813167</v>
+      </c>
+      <c r="L43">
+        <v>-0.00808685495456361</v>
+      </c>
+      <c r="M43">
+        <v>0.03433635124169436</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>-0.04919562049287067</v>
+        <v>0.08155519075665389</v>
       </c>
       <c r="C44">
-        <v>0.02269793728491545</v>
+        <v>0.06174890322846224</v>
       </c>
       <c r="D44">
-        <v>0.06063213193636013</v>
+        <v>0.06524102484147251</v>
       </c>
       <c r="E44">
-        <v>-0.1272994364356347</v>
+        <v>-0.09177533950567002</v>
       </c>
       <c r="F44">
-        <v>0.004256047250454973</v>
+        <v>0.1658925366631272</v>
       </c>
       <c r="G44">
-        <v>0.01745270158921214</v>
+        <v>0.03307174588770233</v>
       </c>
       <c r="H44">
-        <v>0.02705004852495754</v>
+        <v>-0.08564087074101531</v>
       </c>
       <c r="I44">
-        <v>0.09315742711203409</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>-0.02848195412056271</v>
+      </c>
+      <c r="J44">
+        <v>-0.0365208683572421</v>
+      </c>
+      <c r="K44">
+        <v>0.05004151002983202</v>
+      </c>
+      <c r="L44">
+        <v>-0.01868819528375723</v>
+      </c>
+      <c r="M44">
+        <v>-0.03513601511524458</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2011,329 +2551,473 @@
       <c r="I45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>-0.0200509241073725</v>
+        <v>0.03592143881362144</v>
       </c>
       <c r="C46">
-        <v>0.03658712069227871</v>
+        <v>0.04070416870369418</v>
       </c>
       <c r="D46">
-        <v>0.01456157174676819</v>
+        <v>0.04328583377823607</v>
       </c>
       <c r="E46">
-        <v>-0.04861413853756246</v>
+        <v>-0.02942930561634173</v>
       </c>
       <c r="F46">
-        <v>0.01103432703637119</v>
+        <v>0.02752729199663902</v>
       </c>
       <c r="G46">
-        <v>0.003677476870416996</v>
+        <v>0.01726560333460928</v>
       </c>
       <c r="H46">
-        <v>0.01022215876274636</v>
+        <v>-0.04507929166334221</v>
       </c>
       <c r="I46">
-        <v>0.03490329327969305</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.0107481139583856</v>
+      </c>
+      <c r="J46">
+        <v>0.03950316356713574</v>
+      </c>
+      <c r="K46">
+        <v>0.06672192085699387</v>
+      </c>
+      <c r="L46">
+        <v>0.0319643729598764</v>
+      </c>
+      <c r="M46">
+        <v>0.006419120546898459</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>-0.02993222465577761</v>
+        <v>0.0459326402920623</v>
       </c>
       <c r="C47">
-        <v>0.001053981503061223</v>
+        <v>0.02934527961455929</v>
       </c>
       <c r="D47">
-        <v>-0.006645104442983028</v>
+        <v>0.02000151691282629</v>
       </c>
       <c r="E47">
-        <v>-0.07103467687686019</v>
+        <v>-0.00466014349582369</v>
       </c>
       <c r="F47">
-        <v>0.02906855647776923</v>
+        <v>0.03179999899428761</v>
       </c>
       <c r="G47">
-        <v>0.0276366070278797</v>
+        <v>0.04028478356417976</v>
       </c>
       <c r="H47">
-        <v>-0.005149386670295115</v>
+        <v>-0.01895176161489042</v>
       </c>
       <c r="I47">
-        <v>-0.03666403295229913</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>-0.03476574914456923</v>
+      </c>
+      <c r="J47">
+        <v>0.02545401270303369</v>
+      </c>
+      <c r="K47">
+        <v>0.02747595628217887</v>
+      </c>
+      <c r="L47">
+        <v>-0.002394698456629714</v>
+      </c>
+      <c r="M47">
+        <v>0.05233292623684221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>-0.03469046696206889</v>
+        <v>0.0429301122744537</v>
       </c>
       <c r="C48">
-        <v>0.02182635612636059</v>
+        <v>0.01828598619382461</v>
       </c>
       <c r="D48">
-        <v>0.007620340228491969</v>
+        <v>0.01275798019014794</v>
       </c>
       <c r="E48">
-        <v>-0.0433980419982975</v>
+        <v>0.000816178815846663</v>
       </c>
       <c r="F48">
-        <v>0.03675577877747017</v>
+        <v>0.05882186812571583</v>
       </c>
       <c r="G48">
-        <v>0.01872693582110895</v>
+        <v>-0.0003688389100434727</v>
       </c>
       <c r="H48">
-        <v>-0.04411160662154338</v>
+        <v>-0.06247599198285553</v>
       </c>
       <c r="I48">
-        <v>0.0119999935705241</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>-0.0103092705187233</v>
+      </c>
+      <c r="J48">
+        <v>-0.01420629078496497</v>
+      </c>
+      <c r="K48">
+        <v>0.04821436502635771</v>
+      </c>
+      <c r="L48">
+        <v>-0.04140076875462928</v>
+      </c>
+      <c r="M48">
+        <v>0.02792407331948051</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>-0.1888164006399618</v>
+        <v>0.2231732330923251</v>
       </c>
       <c r="C49">
-        <v>0.1263371309964531</v>
+        <v>0.08709706136109943</v>
       </c>
       <c r="D49">
-        <v>0.08268955598503375</v>
+        <v>-0.06789371378686165</v>
       </c>
       <c r="E49">
-        <v>0.07328059214087292</v>
+        <v>-0.02329173075345207</v>
       </c>
       <c r="F49">
-        <v>-0.01950731397869411</v>
+        <v>-0.2297078563877245</v>
       </c>
       <c r="G49">
-        <v>-0.190830581724841</v>
+        <v>-0.178193064885846</v>
       </c>
       <c r="H49">
-        <v>0.05322650332341121</v>
+        <v>-0.008718303483446845</v>
       </c>
       <c r="I49">
-        <v>-0.01394033875660278</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>-0.1053914424476767</v>
+      </c>
+      <c r="J49">
+        <v>-0.1669931462694894</v>
+      </c>
+      <c r="K49">
+        <v>-0.1300074604368104</v>
+      </c>
+      <c r="L49">
+        <v>0.1723235111022449</v>
+      </c>
+      <c r="M49">
+        <v>0.04976218040586265</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>-0.05396663629455767</v>
+        <v>0.04364764337249584</v>
       </c>
       <c r="C50">
-        <v>0.03292016298651404</v>
+        <v>0.04358085514986744</v>
       </c>
       <c r="D50">
-        <v>0.00963945668854381</v>
+        <v>0.001272886491575078</v>
       </c>
       <c r="E50">
-        <v>-0.02019302827245765</v>
+        <v>0.008914739961971316</v>
       </c>
       <c r="F50">
-        <v>0.05729221382892005</v>
+        <v>0.04000770878958718</v>
       </c>
       <c r="G50">
-        <v>0.04368227459487693</v>
+        <v>0.05084495004952124</v>
       </c>
       <c r="H50">
-        <v>-0.002734108032355307</v>
+        <v>-0.03580944917649029</v>
       </c>
       <c r="I50">
-        <v>-0.02142956450539</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>-0.001289395922889094</v>
+      </c>
+      <c r="J50">
+        <v>0.04762047987947142</v>
+      </c>
+      <c r="K50">
+        <v>0.02538335867046713</v>
+      </c>
+      <c r="L50">
+        <v>-0.0107829161542046</v>
+      </c>
+      <c r="M50">
+        <v>-0.04200966908543737</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>-0.02409842938501311</v>
+        <v>0.03029633053950462</v>
       </c>
       <c r="C51">
-        <v>0.01214427806564167</v>
+        <v>0.005958765890503069</v>
       </c>
       <c r="D51">
-        <v>-0.006756784956391853</v>
+        <v>-0.001979526336105169</v>
       </c>
       <c r="E51">
-        <v>-0.01469519526514486</v>
+        <v>-0.01878117625823386</v>
       </c>
       <c r="F51">
-        <v>-0.01986076859594479</v>
+        <v>-0.01753513444159236</v>
       </c>
       <c r="G51">
-        <v>-0.01612461862791299</v>
+        <v>-0.009286622381786283</v>
       </c>
       <c r="H51">
-        <v>0.02246539929835987</v>
+        <v>0.01530032945391964</v>
       </c>
       <c r="I51">
-        <v>0.0242792486416552</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>-0.01365483176938594</v>
+      </c>
+      <c r="J51">
+        <v>-0.05385036981381819</v>
+      </c>
+      <c r="K51">
+        <v>-0.07367962478927627</v>
+      </c>
+      <c r="L51">
+        <v>-0.01930446027217193</v>
+      </c>
+      <c r="M51">
+        <v>0.02715061135035863</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.008661176457207006</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.001636765174929672</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.01578852060981024</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.000409205459610859</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.004554820043952679</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.005935144320678458</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>-0.01079498949842806</v>
       </c>
       <c r="I52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>0.01617923219923967</v>
+      </c>
+      <c r="J52">
+        <v>-0.007706859856502745</v>
+      </c>
+      <c r="K52">
+        <v>-0.01042631113330754</v>
+      </c>
+      <c r="L52">
+        <v>-0.009402508355433752</v>
+      </c>
+      <c r="M52">
+        <v>-0.01103915886672439</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>-0.1659889276584157</v>
+        <v>0.1541254486750355</v>
       </c>
       <c r="C53">
-        <v>0.02105494627969111</v>
+        <v>0.04943522778292753</v>
       </c>
       <c r="D53">
-        <v>0.03902500456235203</v>
+        <v>-0.01877594155291824</v>
       </c>
       <c r="E53">
-        <v>0.07101831982391543</v>
+        <v>0.005412618489685195</v>
       </c>
       <c r="F53">
-        <v>-0.002058804166264889</v>
+        <v>-0.07171172731091324</v>
       </c>
       <c r="G53">
-        <v>0.26826577684247</v>
+        <v>0.2249299053114778</v>
       </c>
       <c r="H53">
-        <v>-0.004534646812381035</v>
+        <v>0.05274369633851463</v>
       </c>
       <c r="I53">
-        <v>-0.0244076730456454</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>0.07979942630441762</v>
+      </c>
+      <c r="J53">
+        <v>0.09112243877730952</v>
+      </c>
+      <c r="K53">
+        <v>-0.06730808278467255</v>
+      </c>
+      <c r="L53">
+        <v>0.02095466612914202</v>
+      </c>
+      <c r="M53">
+        <v>-0.1025856272966912</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>-0.04857449584090411</v>
+        <v>0.05635183369649433</v>
       </c>
       <c r="C54">
-        <v>0.03326579262037431</v>
+        <v>0.03224096249466137</v>
       </c>
       <c r="D54">
-        <v>0.03352140083893761</v>
+        <v>0.01884982126312839</v>
       </c>
       <c r="E54">
-        <v>-0.02958123431405965</v>
+        <v>-0.01926994460973565</v>
       </c>
       <c r="F54">
-        <v>0.02183051304575259</v>
+        <v>0.1049196594369423</v>
       </c>
       <c r="G54">
-        <v>0.00778969768730944</v>
+        <v>0.001560948125063806</v>
       </c>
       <c r="H54">
-        <v>-0.0260816985714356</v>
+        <v>-0.06802756741795081</v>
       </c>
       <c r="I54">
-        <v>0.007465447746876269</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>0.04102343914722418</v>
+      </c>
+      <c r="J54">
+        <v>0.07113283820303967</v>
+      </c>
+      <c r="K54">
+        <v>0.09622299495937853</v>
+      </c>
+      <c r="L54">
+        <v>-0.02107063021588032</v>
+      </c>
+      <c r="M54">
+        <v>0.02571971003711881</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>-0.09320381839761707</v>
+        <v>0.08657431469427086</v>
       </c>
       <c r="C55">
-        <v>0.008029941178328524</v>
+        <v>0.03808970866260827</v>
       </c>
       <c r="D55">
-        <v>0.03298733460703889</v>
+        <v>-0.02599509728721387</v>
       </c>
       <c r="E55">
-        <v>0.00925470274043034</v>
+        <v>-0.009219799258817059</v>
       </c>
       <c r="F55">
-        <v>0.02720549246976432</v>
+        <v>0.002097093434884716</v>
       </c>
       <c r="G55">
-        <v>0.2331310310656891</v>
+        <v>0.1677656194260221</v>
       </c>
       <c r="H55">
-        <v>0.01295003352817785</v>
+        <v>0.01472837746117497</v>
       </c>
       <c r="I55">
-        <v>-0.02425416385414785</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>0.04583258060831827</v>
+      </c>
+      <c r="J55">
+        <v>0.05641006679560167</v>
+      </c>
+      <c r="K55">
+        <v>-0.04432730086470994</v>
+      </c>
+      <c r="L55">
+        <v>0.012173295481563</v>
+      </c>
+      <c r="M55">
+        <v>-0.0565085548727376</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>-0.1696338707219893</v>
+        <v>0.1469316580000568</v>
       </c>
       <c r="C56">
-        <v>0.02000395568510088</v>
+        <v>0.06948549571820709</v>
       </c>
       <c r="D56">
-        <v>0.06314482139591848</v>
+        <v>-0.03070282408501314</v>
       </c>
       <c r="E56">
-        <v>0.06906236109971765</v>
+        <v>-0.01109835604621941</v>
       </c>
       <c r="F56">
-        <v>-0.01192569154717461</v>
+        <v>-0.04024794031543266</v>
       </c>
       <c r="G56">
-        <v>0.2395995815987556</v>
+        <v>0.2309401580441403</v>
       </c>
       <c r="H56">
-        <v>-0.03984263238788908</v>
+        <v>0.09025979266085274</v>
       </c>
       <c r="I56">
-        <v>-0.05103830533048129</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>0.08578031969979054</v>
+      </c>
+      <c r="J56">
+        <v>0.06658002145220054</v>
+      </c>
+      <c r="K56">
+        <v>-0.03818891762910333</v>
+      </c>
+      <c r="L56">
+        <v>0.005158286792870583</v>
+      </c>
+      <c r="M56">
+        <v>-0.06744338760297418</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2359,1112 +3043,1580 @@
       <c r="I57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>-0.04892166771070366</v>
+        <v>0.03947932265342277</v>
       </c>
       <c r="C58">
-        <v>0.04019340816760097</v>
+        <v>0.03349071018638521</v>
       </c>
       <c r="D58">
-        <v>0.03768472557823711</v>
+        <v>0.08309828559363204</v>
       </c>
       <c r="E58">
-        <v>-0.3083220485685952</v>
+        <v>-0.03277152044359871</v>
       </c>
       <c r="F58">
-        <v>0.1478744251014228</v>
+        <v>0.03598171995950625</v>
       </c>
       <c r="G58">
-        <v>-0.1622404859708074</v>
+        <v>-0.06938616823586344</v>
       </c>
       <c r="H58">
-        <v>-0.00772486953724358</v>
+        <v>-0.2144793912250782</v>
       </c>
       <c r="I58">
-        <v>-0.09042380223190574</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>-0.1544397278143638</v>
+      </c>
+      <c r="J58">
+        <v>-0.05588882457854338</v>
+      </c>
+      <c r="K58">
+        <v>-0.1322505901601977</v>
+      </c>
+      <c r="L58">
+        <v>-0.5249892444271769</v>
+      </c>
+      <c r="M58">
+        <v>0.2357308592328231</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>-0.2525880928626942</v>
+        <v>0.2311268478344934</v>
       </c>
       <c r="C59">
-        <v>-0.4046920924969559</v>
+        <v>-0.3012409738281794</v>
       </c>
       <c r="D59">
-        <v>0.03250877751395867</v>
+        <v>-0.03598788528446968</v>
       </c>
       <c r="E59">
-        <v>-0.02382435411683979</v>
+        <v>-0.01002875057701791</v>
       </c>
       <c r="F59">
-        <v>-0.07889972389513626</v>
+        <v>0.02489022702512409</v>
       </c>
       <c r="G59">
-        <v>0.04133962984732751</v>
+        <v>0.05417224378761865</v>
       </c>
       <c r="H59">
-        <v>-0.01266516109562633</v>
+        <v>0.06756754837759001</v>
       </c>
       <c r="I59">
-        <v>0.06348860979839056</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>0.1039255678028675</v>
+      </c>
+      <c r="J59">
+        <v>-0.04909607280743793</v>
+      </c>
+      <c r="K59">
+        <v>-0.05064973069503019</v>
+      </c>
+      <c r="L59">
+        <v>-0.01415180848215136</v>
+      </c>
+      <c r="M59">
+        <v>0.01908794208128702</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>-0.2446174386080771</v>
+        <v>0.2409653502270709</v>
       </c>
       <c r="C60">
-        <v>0.08001386757264022</v>
+        <v>0.1188333202478908</v>
       </c>
       <c r="D60">
-        <v>0.09302276127805735</v>
+        <v>-0.06691684656975092</v>
       </c>
       <c r="E60">
-        <v>-0.02333334925123626</v>
+        <v>-0.03987440207413511</v>
       </c>
       <c r="F60">
-        <v>-0.03684392497148256</v>
+        <v>-0.1105795554932002</v>
       </c>
       <c r="G60">
-        <v>-0.06298476005138647</v>
+        <v>-0.06514639169462358</v>
       </c>
       <c r="H60">
-        <v>0.06941857856542299</v>
+        <v>0.1004407920798414</v>
       </c>
       <c r="I60">
-        <v>-0.09709057017667118</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>-0.04076563294589531</v>
+      </c>
+      <c r="J60">
+        <v>0.08545124210444864</v>
+      </c>
+      <c r="K60">
+        <v>-0.1692755703498611</v>
+      </c>
+      <c r="L60">
+        <v>0.02710325269762282</v>
+      </c>
+      <c r="M60">
+        <v>-0.01265203043160176</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>-0.07877413777453562</v>
+        <v>0.08880153953259397</v>
       </c>
       <c r="C61">
-        <v>0.05963720981946995</v>
+        <v>0.06170720434789557</v>
       </c>
       <c r="D61">
-        <v>0.02214583734942139</v>
+        <v>-0.043239195232009</v>
       </c>
       <c r="E61">
-        <v>-0.002956629391291294</v>
+        <v>-0.01988775768078719</v>
       </c>
       <c r="F61">
-        <v>0.01707711107201685</v>
+        <v>0.1064306571158541</v>
       </c>
       <c r="G61">
-        <v>0.009239103305751947</v>
+        <v>0.06654109561473326</v>
       </c>
       <c r="H61">
-        <v>0.002071526348863511</v>
+        <v>-0.05325333697991606</v>
       </c>
       <c r="I61">
-        <v>0.08792142477844601</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>-0.0324126598730644</v>
+      </c>
+      <c r="J61">
+        <v>-0.07859867952664835</v>
+      </c>
+      <c r="K61">
+        <v>0.02413028497589275</v>
+      </c>
+      <c r="L61">
+        <v>-0.02925849016052737</v>
+      </c>
+      <c r="M61">
+        <v>-0.0166167746704355</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>-0.1643913694783169</v>
+        <v>0.1456463280186494</v>
       </c>
       <c r="C62">
-        <v>0.05937763231732337</v>
+        <v>0.07943763486722848</v>
       </c>
       <c r="D62">
-        <v>0.03042173605332913</v>
+        <v>-0.03214345940773459</v>
       </c>
       <c r="E62">
-        <v>0.1094661626699528</v>
+        <v>0.0241683450813043</v>
       </c>
       <c r="F62">
-        <v>-0.03424565232712737</v>
+        <v>-0.02265664971993568</v>
       </c>
       <c r="G62">
-        <v>0.2476487010251944</v>
+        <v>0.1971876030289862</v>
       </c>
       <c r="H62">
-        <v>-0.01128798458397328</v>
+        <v>0.05625003280037954</v>
       </c>
       <c r="I62">
-        <v>0.02299806287420215</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>0.06645555556776853</v>
+      </c>
+      <c r="J62">
+        <v>0.1119091861499667</v>
+      </c>
+      <c r="K62">
+        <v>-0.01599918985192095</v>
+      </c>
+      <c r="L62">
+        <v>0.09718066907534265</v>
+      </c>
+      <c r="M62">
+        <v>-0.06886246339292854</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>-0.04339787372224775</v>
+        <v>0.04451650351249836</v>
       </c>
       <c r="C63">
-        <v>0.03775189138767535</v>
+        <v>0.02683587942703483</v>
       </c>
       <c r="D63">
-        <v>0.02446836762859027</v>
+        <v>-0.005772077408537087</v>
       </c>
       <c r="E63">
-        <v>-0.01191516044109124</v>
+        <v>0.00671385233040249</v>
       </c>
       <c r="F63">
-        <v>0.03009430274184094</v>
+        <v>0.06027506479296834</v>
       </c>
       <c r="G63">
-        <v>0.03197167080119263</v>
+        <v>0.01529608178636424</v>
       </c>
       <c r="H63">
-        <v>0.03014532763156869</v>
+        <v>-0.054966126121291</v>
       </c>
       <c r="I63">
-        <v>-0.01151826261313789</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>-0.02833823910152612</v>
+      </c>
+      <c r="J63">
+        <v>0.03505762188502123</v>
+      </c>
+      <c r="K63">
+        <v>0.02198139019258177</v>
+      </c>
+      <c r="L63">
+        <v>-0.002308193967755286</v>
+      </c>
+      <c r="M63">
+        <v>-0.003853083618295</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>-0.1011301756495647</v>
+        <v>0.1011269438000143</v>
       </c>
       <c r="C64">
-        <v>0.03423983424960715</v>
+        <v>0.04954151330855516</v>
       </c>
       <c r="D64">
-        <v>0.04145038972050183</v>
+        <v>0.0001527858795241111</v>
       </c>
       <c r="E64">
-        <v>-0.03285003466523073</v>
+        <v>-0.03821789182827188</v>
       </c>
       <c r="F64">
-        <v>0.02843887983125563</v>
+        <v>0.05518612807762282</v>
       </c>
       <c r="G64">
-        <v>-0.02532786086041966</v>
+        <v>-0.002711409337894281</v>
       </c>
       <c r="H64">
-        <v>0.02819733133733009</v>
+        <v>-0.03703441372786416</v>
       </c>
       <c r="I64">
-        <v>0.08729537749889128</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>-0.07015839318977098</v>
+      </c>
+      <c r="J64">
+        <v>-0.00630215276792539</v>
+      </c>
+      <c r="K64">
+        <v>0.03739238139582506</v>
+      </c>
+      <c r="L64">
+        <v>-0.003940201952443787</v>
+      </c>
+      <c r="M64">
+        <v>-0.06424723299768627</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>-0.1251734664254095</v>
+        <v>0.1228683811928521</v>
       </c>
       <c r="C65">
-        <v>0.059779051036756</v>
+        <v>0.04331917326629234</v>
       </c>
       <c r="D65">
-        <v>0.06158192875365455</v>
+        <v>-0.01241679976914136</v>
       </c>
       <c r="E65">
-        <v>-0.125399299115578</v>
+        <v>-0.006889484288645502</v>
       </c>
       <c r="F65">
-        <v>0.1373815128155434</v>
+        <v>0.04184664773137207</v>
       </c>
       <c r="G65">
-        <v>-0.1269677196114192</v>
+        <v>-0.2019491383598748</v>
       </c>
       <c r="H65">
-        <v>0.2436762203488143</v>
+        <v>-0.0705845620921503</v>
       </c>
       <c r="I65">
-        <v>-0.6164119579387722</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>-0.1618064939193934</v>
+      </c>
+      <c r="J65">
+        <v>0.6338043543353545</v>
+      </c>
+      <c r="K65">
+        <v>-0.103652098493739</v>
+      </c>
+      <c r="L65">
+        <v>0.06912516768301503</v>
+      </c>
+      <c r="M65">
+        <v>0.1113250995370071</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>-0.1536706438155928</v>
+        <v>0.1243325040203161</v>
       </c>
       <c r="C66">
-        <v>0.1580356756758562</v>
+        <v>0.1303548276622668</v>
       </c>
       <c r="D66">
-        <v>0.04894409414741752</v>
+        <v>-0.1011558819108916</v>
       </c>
       <c r="E66">
-        <v>0.02075008336490642</v>
+        <v>0.01038369763706854</v>
       </c>
       <c r="F66">
-        <v>-0.06106340174475277</v>
+        <v>0.154500075417479</v>
       </c>
       <c r="G66">
-        <v>0.0115709443350141</v>
+        <v>0.0718681151037225</v>
       </c>
       <c r="H66">
-        <v>0.04659219994552927</v>
+        <v>-0.07014561979475022</v>
       </c>
       <c r="I66">
-        <v>0.3579752288443403</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>-0.09551561441855454</v>
+      </c>
+      <c r="J66">
+        <v>-0.2251484386634767</v>
+      </c>
+      <c r="K66">
+        <v>0.005316409342391632</v>
+      </c>
+      <c r="L66">
+        <v>-0.03953468696460643</v>
+      </c>
+      <c r="M66">
+        <v>-0.08282361664061325</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>-0.07347494785926798</v>
+        <v>0.08227474836585119</v>
       </c>
       <c r="C67">
-        <v>0.0468174061540886</v>
+        <v>0.06313368969621322</v>
       </c>
       <c r="D67">
-        <v>0.008733631854520259</v>
+        <v>0.01824654140237243</v>
       </c>
       <c r="E67">
-        <v>-0.01004662841923371</v>
+        <v>-0.0301947055210866</v>
       </c>
       <c r="F67">
-        <v>-0.01536369117869441</v>
+        <v>-0.03001210343001453</v>
       </c>
       <c r="G67">
-        <v>-0.01116674981327858</v>
+        <v>0.06784505402022066</v>
       </c>
       <c r="H67">
-        <v>-0.04673541722794665</v>
+        <v>0.1255272845255044</v>
       </c>
       <c r="I67">
-        <v>0.05050543361415921</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>-0.04748196367641224</v>
+      </c>
+      <c r="J67">
+        <v>-0.02898343503180672</v>
+      </c>
+      <c r="K67">
+        <v>0.09792017772142239</v>
+      </c>
+      <c r="L67">
+        <v>0.1261745518949334</v>
+      </c>
+      <c r="M67">
+        <v>-0.02382757292403959</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>-0.1066699999283192</v>
+        <v>0.1242430460677874</v>
       </c>
       <c r="C68">
-        <v>-0.2676912039003825</v>
+        <v>-0.27246650186189</v>
       </c>
       <c r="D68">
-        <v>-0.0009376888067680634</v>
+        <v>-0.005540782307455511</v>
       </c>
       <c r="E68">
-        <v>-0.009527214304266942</v>
+        <v>-0.002194504711940611</v>
       </c>
       <c r="F68">
-        <v>0.03216724383473155</v>
+        <v>0.01859183456436026</v>
       </c>
       <c r="G68">
-        <v>0.03019326906306071</v>
+        <v>0.02804084927966254</v>
       </c>
       <c r="H68">
-        <v>-0.01082209601672558</v>
+        <v>-0.03182296993579012</v>
       </c>
       <c r="I68">
-        <v>-0.02059541344950233</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>-0.02619054071238115</v>
+      </c>
+      <c r="J68">
+        <v>0.05867759360630689</v>
+      </c>
+      <c r="K68">
+        <v>0.01739762860519178</v>
+      </c>
+      <c r="L68">
+        <v>-0.004990158903253055</v>
+      </c>
+      <c r="M68">
+        <v>-0.01419431683955988</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>-0.04435084675182644</v>
+        <v>0.04399668233020848</v>
       </c>
       <c r="C69">
-        <v>0.02973323317422714</v>
+        <v>0.02347130410549948</v>
       </c>
       <c r="D69">
-        <v>0.009922111287506931</v>
+        <v>0.01213162609155475</v>
       </c>
       <c r="E69">
-        <v>-0.01838137600935462</v>
+        <v>0.003650537506375705</v>
       </c>
       <c r="F69">
-        <v>-0.03562880806768366</v>
+        <v>0.01417186978260111</v>
       </c>
       <c r="G69">
-        <v>0.04279957217134642</v>
+        <v>0.04380797152832696</v>
       </c>
       <c r="H69">
-        <v>-0.004225029627256779</v>
+        <v>0.02468115392322245</v>
       </c>
       <c r="I69">
-        <v>-0.01619439813079315</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>-0.01871628478655522</v>
+      </c>
+      <c r="J69">
+        <v>0.002684093054692514</v>
+      </c>
+      <c r="K69">
+        <v>0.007357850171600858</v>
+      </c>
+      <c r="L69">
+        <v>0.01457585550172178</v>
+      </c>
+      <c r="M69">
+        <v>0.06578771730389647</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>-0.03301559041915753</v>
+        <v>0.05225170070826998</v>
       </c>
       <c r="C70">
-        <v>0.01012205154687896</v>
+        <v>0.03858811970597217</v>
       </c>
       <c r="D70">
-        <v>-0.008107708262812024</v>
+        <v>-0.0260998305233001</v>
       </c>
       <c r="E70">
-        <v>-0.01389908428607123</v>
+        <v>-0.000169910516654682</v>
       </c>
       <c r="F70">
-        <v>0.000621079175558869</v>
+        <v>0.005117958297212109</v>
       </c>
       <c r="G70">
-        <v>-0.08481495043871963</v>
+        <v>-0.04826210622476504</v>
       </c>
       <c r="H70">
-        <v>-0.06508950034791024</v>
+        <v>0.07711362182693013</v>
       </c>
       <c r="I70">
-        <v>0.01592314062573667</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>0.03128677011743904</v>
+      </c>
+      <c r="J70">
+        <v>0.02131589914101148</v>
+      </c>
+      <c r="K70">
+        <v>0.329796488822014</v>
+      </c>
+      <c r="L70">
+        <v>0.01034881263911298</v>
+      </c>
+      <c r="M70">
+        <v>0.1756418882667201</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>-0.1098026442175249</v>
+        <v>0.1372646661210933</v>
       </c>
       <c r="C71">
-        <v>-0.2800539548828088</v>
+        <v>-0.2822163398317635</v>
       </c>
       <c r="D71">
-        <v>0.02638510820743823</v>
+        <v>-0.007496608318854962</v>
       </c>
       <c r="E71">
-        <v>0.001899293753038698</v>
+        <v>-0.02272505040208251</v>
       </c>
       <c r="F71">
-        <v>0.02166723944663743</v>
+        <v>0.02200408764272482</v>
       </c>
       <c r="G71">
-        <v>0.0005837438219129919</v>
+        <v>0.02869634796831433</v>
       </c>
       <c r="H71">
-        <v>-0.01893783734686172</v>
+        <v>-0.02225832835830117</v>
       </c>
       <c r="I71">
-        <v>0.005392304667977947</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>-0.03822475067030268</v>
+      </c>
+      <c r="J71">
+        <v>0.01174113808821548</v>
+      </c>
+      <c r="K71">
+        <v>0.01399002694043914</v>
+      </c>
+      <c r="L71">
+        <v>0.01330346832742038</v>
+      </c>
+      <c r="M71">
+        <v>-0.00453121773852202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>-0.183558308124121</v>
+        <v>0.1436024434693445</v>
       </c>
       <c r="C72">
-        <v>0.05083694292934004</v>
+        <v>0.03711467913065928</v>
       </c>
       <c r="D72">
-        <v>-0.2174879588830089</v>
+        <v>0.002460213962604095</v>
       </c>
       <c r="E72">
-        <v>0.03234440772705265</v>
+        <v>0.1828116835396231</v>
       </c>
       <c r="F72">
-        <v>-0.0206292070960917</v>
+        <v>0.05809600163444251</v>
       </c>
       <c r="G72">
-        <v>0.00425825628891693</v>
+        <v>0.005488554088828481</v>
       </c>
       <c r="H72">
-        <v>0.1264098336164428</v>
+        <v>0.05351098418455531</v>
       </c>
       <c r="I72">
-        <v>-0.07712339115909796</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>-0.01089672185985521</v>
+      </c>
+      <c r="J72">
+        <v>0.1475766421972868</v>
+      </c>
+      <c r="K72">
+        <v>-0.09159500794804531</v>
+      </c>
+      <c r="L72">
+        <v>0.05495246585810149</v>
+      </c>
+      <c r="M72">
+        <v>0.007471912593818791</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>-0.2662804401660105</v>
+        <v>0.2359501689887155</v>
       </c>
       <c r="C73">
-        <v>0.1815747540010711</v>
+        <v>0.1566807335503507</v>
       </c>
       <c r="D73">
-        <v>0.1549007184815717</v>
+        <v>-0.1541466758501692</v>
       </c>
       <c r="E73">
-        <v>0.04360187972644462</v>
+        <v>-0.08532643587420111</v>
       </c>
       <c r="F73">
-        <v>0.09479065915899294</v>
+        <v>-0.3849259612367033</v>
       </c>
       <c r="G73">
-        <v>-0.1593096241625639</v>
+        <v>-0.1881645811232418</v>
       </c>
       <c r="H73">
-        <v>0.1331868990077175</v>
+        <v>0.055492047231978</v>
       </c>
       <c r="I73">
-        <v>-0.122733796552214</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>-0.3650467209027795</v>
+      </c>
+      <c r="J73">
+        <v>-0.2271469862762336</v>
+      </c>
+      <c r="K73">
+        <v>-0.3247450398115078</v>
+      </c>
+      <c r="L73">
+        <v>-0.02625024643261764</v>
+      </c>
+      <c r="M73">
+        <v>-0.1003372953723491</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>-0.09012335835224655</v>
+        <v>0.08752515991913964</v>
       </c>
       <c r="C74">
-        <v>0.02773613900897572</v>
+        <v>0.06480831223984025</v>
       </c>
       <c r="D74">
-        <v>0.02535284561036939</v>
+        <v>-0.0096779242511346</v>
       </c>
       <c r="E74">
-        <v>0.0213754020401347</v>
+        <v>0.005935516696817516</v>
       </c>
       <c r="F74">
-        <v>0.07823648452226012</v>
+        <v>-0.03670063165050044</v>
       </c>
       <c r="G74">
-        <v>0.1565599042847708</v>
+        <v>0.1559545818664513</v>
       </c>
       <c r="H74">
-        <v>0.007767665820561952</v>
+        <v>0.003063910200142163</v>
       </c>
       <c r="I74">
-        <v>-0.0336742937784184</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>-0.02384537082712179</v>
+      </c>
+      <c r="J74">
+        <v>0.02250847476417126</v>
+      </c>
+      <c r="K74">
+        <v>-0.039615026660934</v>
+      </c>
+      <c r="L74">
+        <v>0.02194009159394365</v>
+      </c>
+      <c r="M74">
+        <v>-0.03204170884087727</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>-0.1001025759748325</v>
+        <v>0.09152859419940304</v>
       </c>
       <c r="C75">
-        <v>0.02119800558549812</v>
+        <v>0.05095219507116937</v>
       </c>
       <c r="D75">
-        <v>0.02707706414065803</v>
+        <v>-0.009354687423846413</v>
       </c>
       <c r="E75">
-        <v>0.02321435691415401</v>
+        <v>0.008140966457499146</v>
       </c>
       <c r="F75">
-        <v>-0.04725260598360366</v>
+        <v>-0.02331716970783619</v>
       </c>
       <c r="G75">
-        <v>0.1201990786473536</v>
+        <v>0.1165018781156547</v>
       </c>
       <c r="H75">
-        <v>-0.04993998363420572</v>
+        <v>0.05304891099917292</v>
       </c>
       <c r="I75">
-        <v>-0.07089836320218909</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>0.07516634461143579</v>
+      </c>
+      <c r="J75">
+        <v>0.01790109912665486</v>
+      </c>
+      <c r="K75">
+        <v>-0.02129663568425594</v>
+      </c>
+      <c r="L75">
+        <v>-0.01354977139119566</v>
+      </c>
+      <c r="M75">
+        <v>0.06151330086642567</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>-0.1297416104125438</v>
+        <v>0.0986895660196993</v>
       </c>
       <c r="C76">
-        <v>0.03689268357311758</v>
+        <v>0.07190480976296866</v>
       </c>
       <c r="D76">
-        <v>0.03046997736748665</v>
+        <v>-0.007207080858952098</v>
       </c>
       <c r="E76">
-        <v>0.01133054682563724</v>
+        <v>-0.0121656981694788</v>
       </c>
       <c r="F76">
-        <v>0.00442762536089834</v>
+        <v>-0.05573793883395453</v>
       </c>
       <c r="G76">
-        <v>0.2515632364694543</v>
+        <v>0.2133908972142935</v>
       </c>
       <c r="H76">
-        <v>-0.01514380956071364</v>
+        <v>0.04930190276559147</v>
       </c>
       <c r="I76">
-        <v>-0.08000736504573101</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>0.0678968050434989</v>
+      </c>
+      <c r="J76">
+        <v>0.06806563241895434</v>
+      </c>
+      <c r="K76">
+        <v>-0.05088143147561546</v>
+      </c>
+      <c r="L76">
+        <v>-0.01467065809794121</v>
+      </c>
+      <c r="M76">
+        <v>-0.1318645881764551</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>-0.07751773806571724</v>
+        <v>0.07176388510453928</v>
       </c>
       <c r="C77">
-        <v>0.03378385790856695</v>
+        <v>0.02084652967662891</v>
       </c>
       <c r="D77">
-        <v>-0.04028064278474946</v>
+        <v>-0.003666356507935955</v>
       </c>
       <c r="E77">
-        <v>-0.3401526599160599</v>
+        <v>-0.04508708606493201</v>
       </c>
       <c r="F77">
-        <v>-0.6838236001157681</v>
+        <v>0.4960075872514936</v>
       </c>
       <c r="G77">
-        <v>-0.0684286469289707</v>
+        <v>-0.2879177618390912</v>
       </c>
       <c r="H77">
-        <v>0.3975036899214962</v>
+        <v>0.6707681527339353</v>
       </c>
       <c r="I77">
-        <v>0.1044976938660147</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>-0.0354161469450472</v>
+      </c>
+      <c r="J77">
+        <v>-0.0503081585976406</v>
+      </c>
+      <c r="K77">
+        <v>-0.119288921874393</v>
+      </c>
+      <c r="L77">
+        <v>-0.03775434908444657</v>
+      </c>
+      <c r="M77">
+        <v>-0.1986277532853977</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>-0.127114665378387</v>
+        <v>0.1709245368929038</v>
       </c>
       <c r="C78">
-        <v>0.09259573408547855</v>
+        <v>0.123250334177635</v>
       </c>
       <c r="D78">
-        <v>0.02268273497982282</v>
+        <v>0.1766057492891116</v>
       </c>
       <c r="E78">
-        <v>-0.1476911752186289</v>
+        <v>-0.129301275146581</v>
       </c>
       <c r="F78">
-        <v>0.06515792725474723</v>
+        <v>0.1129305212473576</v>
       </c>
       <c r="G78">
-        <v>-0.0571104527668882</v>
+        <v>-0.2699807959145412</v>
       </c>
       <c r="H78">
-        <v>-0.04813280756595766</v>
+        <v>-0.2433118047320795</v>
       </c>
       <c r="I78">
-        <v>0.08699902515959448</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>0.6635983187268977</v>
+      </c>
+      <c r="J78">
+        <v>-0.0513912460538692</v>
+      </c>
+      <c r="K78">
+        <v>-0.3360802095401546</v>
+      </c>
+      <c r="L78">
+        <v>-0.09636675927639893</v>
+      </c>
+      <c r="M78">
+        <v>-0.06413646555602812</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>-0.1413297109841515</v>
+        <v>0.1348665648459882</v>
       </c>
       <c r="C79">
-        <v>0.05757329990519124</v>
+        <v>0.07517667834656994</v>
       </c>
       <c r="D79">
-        <v>0.03437556146230104</v>
+        <v>-0.003108707879079755</v>
       </c>
       <c r="E79">
-        <v>0.04154004196342719</v>
+        <v>-0.00582936380708318</v>
       </c>
       <c r="F79">
-        <v>-0.02646096311877564</v>
+        <v>-0.00514021681828323</v>
       </c>
       <c r="G79">
-        <v>0.1734159370471375</v>
+        <v>0.1790134636948043</v>
       </c>
       <c r="H79">
-        <v>-0.05118722381696975</v>
+        <v>0.05874047156634205</v>
       </c>
       <c r="I79">
-        <v>-0.03560908579748324</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>0.03984457940909964</v>
+      </c>
+      <c r="J79">
+        <v>0.06591927812947117</v>
+      </c>
+      <c r="K79">
+        <v>-0.01583413607223983</v>
+      </c>
+      <c r="L79">
+        <v>0.04446031276741627</v>
+      </c>
+      <c r="M79">
+        <v>-0.01065035450755709</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>-0.02215617433925532</v>
+        <v>0.0548673016530332</v>
       </c>
       <c r="C80">
-        <v>-0.001865756785877884</v>
+        <v>0.02021904932069852</v>
       </c>
       <c r="D80">
-        <v>-0.00351701260895224</v>
+        <v>-0.06637875063737199</v>
       </c>
       <c r="E80">
-        <v>0.01889179527729813</v>
+        <v>-0.004382443262779737</v>
       </c>
       <c r="F80">
-        <v>0.02974332041901241</v>
+        <v>-0.006567430236479548</v>
       </c>
       <c r="G80">
-        <v>-0.006736471674178318</v>
+        <v>-0.02507554351754403</v>
       </c>
       <c r="H80">
-        <v>0.05911331650173015</v>
+        <v>-0.1368553982354476</v>
       </c>
       <c r="I80">
-        <v>-0.02330539786639839</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>-0.04009824680448824</v>
+      </c>
+      <c r="J80">
+        <v>0.005162382721643029</v>
+      </c>
+      <c r="K80">
+        <v>0.07863977351405342</v>
+      </c>
+      <c r="L80">
+        <v>0.006662544207128679</v>
+      </c>
+      <c r="M80">
+        <v>-0.00502838081675563</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>-0.1175954764923505</v>
+        <v>0.1201070202151249</v>
       </c>
       <c r="C81">
-        <v>0.04958325161498178</v>
+        <v>0.05324525135193112</v>
       </c>
       <c r="D81">
-        <v>0.04570727340871711</v>
+        <v>-0.002258199885857403</v>
       </c>
       <c r="E81">
-        <v>0.03142016574594686</v>
+        <v>-0.008208706963619718</v>
       </c>
       <c r="F81">
-        <v>-0.01246799118845035</v>
+        <v>0.007435529515428826</v>
       </c>
       <c r="G81">
-        <v>0.1092576331372534</v>
+        <v>0.172396472694098</v>
       </c>
       <c r="H81">
-        <v>-0.01345052884059737</v>
+        <v>0.0221376130400238</v>
       </c>
       <c r="I81">
-        <v>-0.03556826925340876</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>0.04106305174761085</v>
+      </c>
+      <c r="J81">
+        <v>-0.005817086644253821</v>
+      </c>
+      <c r="K81">
+        <v>-0.01872065634848058</v>
+      </c>
+      <c r="L81">
+        <v>-0.01911879101565001</v>
+      </c>
+      <c r="M81">
+        <v>0.03532244158170218</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>-0.1094112245718655</v>
+        <v>0.1172024170124897</v>
       </c>
       <c r="C82">
-        <v>0.035424466702369</v>
+        <v>0.05349843188638479</v>
       </c>
       <c r="D82">
-        <v>0.06355043177262984</v>
+        <v>-0.02401340167501016</v>
       </c>
       <c r="E82">
-        <v>0.080642356616923</v>
+        <v>0.001700490295776315</v>
       </c>
       <c r="F82">
-        <v>-0.03569014485560538</v>
+        <v>-0.03957399685728112</v>
       </c>
       <c r="G82">
-        <v>0.2844381541033791</v>
+        <v>0.2484428463724067</v>
       </c>
       <c r="H82">
-        <v>-0.05845550002743668</v>
+        <v>0.04585449198477418</v>
       </c>
       <c r="I82">
-        <v>-0.006038112593210581</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>0.06622712018501371</v>
+      </c>
+      <c r="J82">
+        <v>-0.003735508916945098</v>
+      </c>
+      <c r="K82">
+        <v>0.03276900516545012</v>
+      </c>
+      <c r="L82">
+        <v>0.04930823032539391</v>
+      </c>
+      <c r="M82">
+        <v>-0.01344291364041995</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>-0.05202388061171762</v>
+        <v>0.07569993759655261</v>
       </c>
       <c r="C83">
-        <v>0.03278768865409978</v>
+        <v>0.06313332682566894</v>
       </c>
       <c r="D83">
-        <v>0.037417198312587</v>
+        <v>-0.01380465911216262</v>
       </c>
       <c r="E83">
-        <v>0.02315627135587573</v>
+        <v>-0.01909951374701408</v>
       </c>
       <c r="F83">
-        <v>-0.02542684286861814</v>
+        <v>-0.01274912909997975</v>
       </c>
       <c r="G83">
-        <v>-0.09571178229255806</v>
+        <v>-0.01038438514420772</v>
       </c>
       <c r="H83">
-        <v>-0.05216693066103406</v>
+        <v>0.01469552396085345</v>
       </c>
       <c r="I83">
-        <v>0.06269417461193352</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>-0.04649382314965408</v>
+      </c>
+      <c r="J83">
+        <v>-0.02642726512412672</v>
+      </c>
+      <c r="K83">
+        <v>0.1612669651967792</v>
+      </c>
+      <c r="L83">
+        <v>-0.004780279658412563</v>
+      </c>
+      <c r="M83">
+        <v>0.03919895913752665</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>-0.05490259252033935</v>
+        <v>0.04302556390452509</v>
       </c>
       <c r="C84">
-        <v>0.03019342743366843</v>
+        <v>-0.02097121718491704</v>
       </c>
       <c r="D84">
-        <v>-0.01860022227477462</v>
+        <v>-0.00420781072774652</v>
       </c>
       <c r="E84">
-        <v>0.01683596657599029</v>
+        <v>0.03551144685137807</v>
       </c>
       <c r="F84">
-        <v>0.1176309933898519</v>
+        <v>0.01976700094860164</v>
       </c>
       <c r="G84">
-        <v>0.01690857647761114</v>
+        <v>-0.1429533740565495</v>
       </c>
       <c r="H84">
-        <v>-0.05873879351149081</v>
+        <v>-0.2481761560554762</v>
       </c>
       <c r="I84">
-        <v>0.03270299145603797</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>0.04056867847766368</v>
+      </c>
+      <c r="J84">
+        <v>-0.1469209955759684</v>
+      </c>
+      <c r="K84">
+        <v>0.1437195282995221</v>
+      </c>
+      <c r="L84">
+        <v>0.3145757813821425</v>
+      </c>
+      <c r="M84">
+        <v>-0.3820436152040814</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>-0.07668952422296155</v>
+        <v>0.1074480727316346</v>
       </c>
       <c r="C85">
-        <v>0.04097835572650667</v>
+        <v>0.05201700633362702</v>
       </c>
       <c r="D85">
-        <v>0.05753080045957907</v>
+        <v>-0.01629104711755972</v>
       </c>
       <c r="E85">
-        <v>0.01077623565552014</v>
+        <v>-0.03496443326130257</v>
       </c>
       <c r="F85">
-        <v>-0.005677584634700948</v>
+        <v>-0.001598879817249754</v>
       </c>
       <c r="G85">
-        <v>0.1840131237486174</v>
+        <v>0.1851574723602524</v>
       </c>
       <c r="H85">
-        <v>0.00122035504307295</v>
+        <v>0.04575228188239049</v>
       </c>
       <c r="I85">
-        <v>-0.04527308303976757</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>0.0401018818693659</v>
+      </c>
+      <c r="J85">
+        <v>0.06095991336163464</v>
+      </c>
+      <c r="K85">
+        <v>-0.03460241374801298</v>
+      </c>
+      <c r="L85">
+        <v>0.05170753154563887</v>
+      </c>
+      <c r="M85">
+        <v>0.004043223907915378</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>-0.03915032233310488</v>
+        <v>0.07119189385556725</v>
       </c>
       <c r="C86">
-        <v>0.05088132520975482</v>
+        <v>0.02751528786637032</v>
       </c>
       <c r="D86">
-        <v>0.006915931092406567</v>
+        <v>0.008369267598225094</v>
       </c>
       <c r="E86">
-        <v>-0.04459873448191749</v>
+        <v>-0.04071995489151858</v>
       </c>
       <c r="F86">
-        <v>-0.02688568703746466</v>
+        <v>0.07796280044087393</v>
       </c>
       <c r="G86">
-        <v>-0.04170916510462668</v>
+        <v>-0.1307315696730019</v>
       </c>
       <c r="H86">
-        <v>0.08192636881003652</v>
+        <v>-0.1328478994692601</v>
       </c>
       <c r="I86">
-        <v>-0.07177632578310067</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>0.1064582889308777</v>
+      </c>
+      <c r="J86">
+        <v>-0.1426114952205883</v>
+      </c>
+      <c r="K86">
+        <v>0.01457677950752007</v>
+      </c>
+      <c r="L86">
+        <v>0.5554351960977592</v>
+      </c>
+      <c r="M86">
+        <v>0.1306899318959161</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>-0.09314526602477596</v>
+        <v>0.1098748159484133</v>
       </c>
       <c r="C87">
-        <v>0.06806008586791286</v>
+        <v>0.06795687336578111</v>
       </c>
       <c r="D87">
-        <v>0.0144486115629183</v>
+        <v>0.03662656520915896</v>
       </c>
       <c r="E87">
-        <v>-0.1403337691977365</v>
+        <v>-0.02899464846213658</v>
       </c>
       <c r="F87">
-        <v>-0.1216660536475636</v>
+        <v>0.1671070915600293</v>
       </c>
       <c r="G87">
-        <v>-0.02459777205142352</v>
+        <v>-0.1131855229881922</v>
       </c>
       <c r="H87">
-        <v>0.08398698457991861</v>
+        <v>0.1065436795714883</v>
       </c>
       <c r="I87">
-        <v>0.1088018625706528</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>-0.05696230814021498</v>
+      </c>
+      <c r="J87">
+        <v>-0.02589493174983627</v>
+      </c>
+      <c r="K87">
+        <v>0.08201876572912713</v>
+      </c>
+      <c r="L87">
+        <v>0.009057908627087502</v>
+      </c>
+      <c r="M87">
+        <v>-0.06840536043711101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>-0.04555759076029824</v>
+        <v>0.05738964700110152</v>
       </c>
       <c r="C88">
-        <v>0.03815678664917699</v>
+        <v>0.05279701858600288</v>
       </c>
       <c r="D88">
-        <v>0.01757544630980272</v>
+        <v>-0.02991345733801584</v>
       </c>
       <c r="E88">
-        <v>-0.003142565817005419</v>
+        <v>-0.01694963259720107</v>
       </c>
       <c r="F88">
-        <v>0.001606631434245964</v>
+        <v>0.02644524263672604</v>
       </c>
       <c r="G88">
-        <v>-0.0219536066347838</v>
+        <v>0.02757366570215268</v>
       </c>
       <c r="H88">
-        <v>-0.0007212409885387954</v>
+        <v>-0.03027599738492462</v>
       </c>
       <c r="I88">
-        <v>0.04245317073482521</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>-0.03643637532421929</v>
+      </c>
+      <c r="J88">
+        <v>-0.02695902369523634</v>
+      </c>
+      <c r="K88">
+        <v>0.01856528410189888</v>
+      </c>
+      <c r="L88">
+        <v>0.001870383485206234</v>
+      </c>
+      <c r="M88">
+        <v>0.0220146847234336</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>-0.175027866795352</v>
+        <v>0.2197257236545788</v>
       </c>
       <c r="C89">
-        <v>-0.3176221619028836</v>
+        <v>-0.3542258858955636</v>
       </c>
       <c r="D89">
-        <v>0.06565839211047485</v>
+        <v>0.04438505573771798</v>
       </c>
       <c r="E89">
-        <v>-0.08784852586584167</v>
+        <v>-0.08579897658599721</v>
       </c>
       <c r="F89">
-        <v>0.005258079406635037</v>
+        <v>0.007441270926627813</v>
       </c>
       <c r="G89">
-        <v>-0.03469887195513768</v>
+        <v>0.007605398694593544</v>
       </c>
       <c r="H89">
-        <v>-0.03025663748334202</v>
+        <v>-0.02738033909453316</v>
       </c>
       <c r="I89">
-        <v>-0.01146850183699257</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>-0.005444687435952723</v>
+      </c>
+      <c r="J89">
+        <v>-0.06475859373825452</v>
+      </c>
+      <c r="K89">
+        <v>-0.001843980475889518</v>
+      </c>
+      <c r="L89">
+        <v>-0.09226460834946565</v>
+      </c>
+      <c r="M89">
+        <v>0.07411558001835697</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>-0.1336086833995454</v>
+        <v>0.1510356770056554</v>
       </c>
       <c r="C90">
-        <v>-0.2703602012943629</v>
+        <v>-0.2683317197949378</v>
       </c>
       <c r="D90">
-        <v>0.00489217732368842</v>
+        <v>-0.00476394829429228</v>
       </c>
       <c r="E90">
-        <v>-0.05622440287402208</v>
+        <v>-0.02072791716722258</v>
       </c>
       <c r="F90">
-        <v>-0.01033613756765929</v>
+        <v>0.02988075026309255</v>
       </c>
       <c r="G90">
-        <v>-0.03910263949234421</v>
+        <v>-0.0131732915974539</v>
       </c>
       <c r="H90">
-        <v>0.04477955274112414</v>
+        <v>-0.01339016074299504</v>
       </c>
       <c r="I90">
-        <v>0.08964468613588626</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>-0.05947592253045893</v>
+      </c>
+      <c r="J90">
+        <v>-0.02086806063488846</v>
+      </c>
+      <c r="K90">
+        <v>-0.005626529065059452</v>
+      </c>
+      <c r="L90">
+        <v>-0.01040705601172271</v>
+      </c>
+      <c r="M90">
+        <v>-0.04006642228840249</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>-0.08286586361043462</v>
+        <v>0.07572680159383179</v>
       </c>
       <c r="C91">
-        <v>0.03555985186466912</v>
+        <v>0.0520693651241503</v>
       </c>
       <c r="D91">
-        <v>0.01945394566634744</v>
+        <v>0.01039859507756546</v>
       </c>
       <c r="E91">
-        <v>-0.01068821861707034</v>
+        <v>-0.006866286109390904</v>
       </c>
       <c r="F91">
-        <v>-0.001165989725954853</v>
+        <v>-0.01690464243709868</v>
       </c>
       <c r="G91">
-        <v>0.1144576136573342</v>
+        <v>0.09875113958854279</v>
       </c>
       <c r="H91">
-        <v>-0.02726583547982579</v>
+        <v>0.0300989805726359</v>
       </c>
       <c r="I91">
-        <v>-0.04512975773305176</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>0.0461134874643872</v>
+      </c>
+      <c r="J91">
+        <v>0.001153168429987929</v>
+      </c>
+      <c r="K91">
+        <v>-0.04213736453656244</v>
+      </c>
+      <c r="L91">
+        <v>-0.03979044175422266</v>
+      </c>
+      <c r="M91">
+        <v>-0.003534534842279708</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>-0.1523156944418831</v>
+        <v>0.168284236136752</v>
       </c>
       <c r="C92">
-        <v>-0.3098318282509658</v>
+        <v>-0.3041799368057908</v>
       </c>
       <c r="D92">
-        <v>0.04523922405372195</v>
+        <v>0.02963700541491765</v>
       </c>
       <c r="E92">
-        <v>-0.02808052564425205</v>
+        <v>-0.0520075789650818</v>
       </c>
       <c r="F92">
-        <v>0.06905510239723422</v>
+        <v>0.0034432113222163</v>
       </c>
       <c r="G92">
-        <v>-0.01231050992225972</v>
+        <v>0.02184115140870929</v>
       </c>
       <c r="H92">
-        <v>-0.04133762316494671</v>
+        <v>-0.03478912548340073</v>
       </c>
       <c r="I92">
-        <v>-0.003160970813744001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>0.00121736152030773</v>
+      </c>
+      <c r="J92">
+        <v>-0.01987595823492172</v>
+      </c>
+      <c r="K92">
+        <v>-0.01220610308082903</v>
+      </c>
+      <c r="L92">
+        <v>-0.01028315758164207</v>
+      </c>
+      <c r="M92">
+        <v>0.03249784035159004</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>-0.1420228681812874</v>
+        <v>0.1649766846923989</v>
       </c>
       <c r="C93">
-        <v>-0.2476319946153243</v>
+        <v>-0.2863592328386314</v>
       </c>
       <c r="D93">
-        <v>0.01642054284413229</v>
+        <v>-0.02642164143491076</v>
       </c>
       <c r="E93">
-        <v>-0.02036302915309646</v>
+        <v>-0.005868992246896832</v>
       </c>
       <c r="F93">
-        <v>0.006873551781163158</v>
+        <v>0.01002971978374342</v>
       </c>
       <c r="G93">
-        <v>-0.05200219381780573</v>
+        <v>-0.002460308992014115</v>
       </c>
       <c r="H93">
-        <v>0.003828743683445677</v>
+        <v>-0.01930695074627235</v>
       </c>
       <c r="I93">
-        <v>0.02465161268472626</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>-0.01982629785731466</v>
+      </c>
+      <c r="J93">
+        <v>-0.008066734016258343</v>
+      </c>
+      <c r="K93">
+        <v>0.03417879799837133</v>
+      </c>
+      <c r="L93">
+        <v>0.02773509181105381</v>
+      </c>
+      <c r="M93">
+        <v>-0.01335399516126267</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>-0.08720032517259302</v>
+        <v>0.1056112921257382</v>
       </c>
       <c r="C94">
-        <v>0.06530164196680899</v>
+        <v>0.07685357783823199</v>
       </c>
       <c r="D94">
-        <v>0.01894078762507317</v>
+        <v>0.01165581965870284</v>
       </c>
       <c r="E94">
-        <v>-0.004788116833397695</v>
+        <v>-0.02039582226282289</v>
       </c>
       <c r="F94">
-        <v>-0.01070472606009333</v>
+        <v>-0.04279724985183879</v>
       </c>
       <c r="G94">
-        <v>0.1601701118969278</v>
+        <v>0.1296196294544747</v>
       </c>
       <c r="H94">
-        <v>-0.06910723724099359</v>
+        <v>0.01746195297718332</v>
       </c>
       <c r="I94">
-        <v>-0.09952740547182809</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>0.05119508898665048</v>
+      </c>
+      <c r="J94">
+        <v>0.0164440325462318</v>
+      </c>
+      <c r="K94">
+        <v>-0.03749083893438376</v>
+      </c>
+      <c r="L94">
+        <v>-0.01983601743246416</v>
+      </c>
+      <c r="M94">
+        <v>0.05105471170227249</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>-0.09836110662202113</v>
+        <v>0.1348262881198039</v>
       </c>
       <c r="C95">
-        <v>0.09208871058892119</v>
+        <v>0.0740286321994626</v>
       </c>
       <c r="D95">
-        <v>0.08387156259882905</v>
+        <v>0.007992531388861704</v>
       </c>
       <c r="E95">
-        <v>-0.02892878003788408</v>
+        <v>-0.06406325019185312</v>
       </c>
       <c r="F95">
-        <v>0.04371337640542487</v>
+        <v>0.06437904776933175</v>
       </c>
       <c r="G95">
-        <v>-0.009772668985412073</v>
+        <v>-0.151530388584047</v>
       </c>
       <c r="H95">
-        <v>0.05108605160117721</v>
+        <v>-0.1196592285105242</v>
       </c>
       <c r="I95">
-        <v>0.04431217666321643</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>-0.1562298396324251</v>
+      </c>
+      <c r="J95">
+        <v>-0.0235129654039082</v>
+      </c>
+      <c r="K95">
+        <v>0.05616854440200065</v>
+      </c>
+      <c r="L95">
+        <v>0.2103332766117129</v>
+      </c>
+      <c r="M95">
+        <v>0.2844560351676984</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3490,97 +4642,145 @@
       <c r="I96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>-0.3057222429256607</v>
+        <v>0.1726266873439704</v>
       </c>
       <c r="C97">
-        <v>0.05427356495730047</v>
+        <v>0.006990965621462656</v>
       </c>
       <c r="D97">
-        <v>-0.8672414576032844</v>
+        <v>0.111425711563684</v>
       </c>
       <c r="E97">
-        <v>0.1698521871065149</v>
+        <v>0.9348562235761996</v>
       </c>
       <c r="F97">
-        <v>0.05385414348764159</v>
+        <v>0.04138655989906654</v>
       </c>
       <c r="G97">
-        <v>-0.08116309555270515</v>
+        <v>-0.07263326649115746</v>
       </c>
       <c r="H97">
-        <v>0.0536497934983814</v>
+        <v>-0.04356974052079118</v>
       </c>
       <c r="I97">
-        <v>-0.004575375740056912</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>0.001173551474084508</v>
+      </c>
+      <c r="J97">
+        <v>-0.0639239923512389</v>
+      </c>
+      <c r="K97">
+        <v>-0.04267420809669599</v>
+      </c>
+      <c r="L97">
+        <v>-0.03363310940360915</v>
+      </c>
+      <c r="M97">
+        <v>0.0234831206087126</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>-0.2640415022530141</v>
+        <v>0.2605677548976157</v>
       </c>
       <c r="C98">
-        <v>0.1040650684770101</v>
+        <v>0.1236289722070822</v>
       </c>
       <c r="D98">
-        <v>0.1783438184101413</v>
+        <v>-0.01767762141989515</v>
       </c>
       <c r="E98">
-        <v>0.3090619553421293</v>
+        <v>-0.00980986266453375</v>
       </c>
       <c r="F98">
-        <v>0.02683478822556723</v>
+        <v>-0.4060939871818345</v>
       </c>
       <c r="G98">
-        <v>-0.505019373568078</v>
+        <v>-0.3148872392286758</v>
       </c>
       <c r="H98">
-        <v>-0.3077143062584559</v>
+        <v>0.1489144227177682</v>
       </c>
       <c r="I98">
-        <v>0.1419041793779451</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>0.2570968793143994</v>
+      </c>
+      <c r="J98">
+        <v>0.02259201353834982</v>
+      </c>
+      <c r="K98">
+        <v>0.5099322349310379</v>
+      </c>
+      <c r="L98">
+        <v>-0.2847599412309064</v>
+      </c>
+      <c r="M98">
+        <v>-0.115770486508945</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>-0.05743825260971358</v>
+        <v>0.06982879519499474</v>
       </c>
       <c r="C99">
-        <v>0.04277578391976471</v>
+        <v>0.05254028458666081</v>
       </c>
       <c r="D99">
-        <v>-0.03936812092978325</v>
+        <v>0.02638423888038452</v>
       </c>
       <c r="E99">
-        <v>0.001385250306166401</v>
+        <v>-0.007586695534867442</v>
       </c>
       <c r="F99">
-        <v>-0.5602889820157414</v>
+        <v>-0.0002421003541233756</v>
       </c>
       <c r="G99">
-        <v>-0.04144332795350262</v>
+        <v>0.05251455868441747</v>
       </c>
       <c r="H99">
-        <v>-0.6264339151297367</v>
+        <v>0.2803497374952226</v>
       </c>
       <c r="I99">
-        <v>-0.3182698992329922</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>0.1656336674004688</v>
+      </c>
+      <c r="J99">
+        <v>-0.1960388711603521</v>
+      </c>
+      <c r="K99">
+        <v>0.08865064605513856</v>
+      </c>
+      <c r="L99">
+        <v>0.05521695075042796</v>
+      </c>
+      <c r="M99">
+        <v>0.6301806508368062</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3606,39 +4806,63 @@
       <c r="I100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>-0.046483554178109</v>
+        <v>0.04474193122911768</v>
       </c>
       <c r="C101">
-        <v>0.01517598971321464</v>
+        <v>0.0236290166950963</v>
       </c>
       <c r="D101">
-        <v>0.01108157107366766</v>
+        <v>-0.001181067214157168</v>
       </c>
       <c r="E101">
-        <v>-0.02907446077206453</v>
+        <v>-0.01859889650955817</v>
       </c>
       <c r="F101">
-        <v>0.03294278169525663</v>
+        <v>0.04742978474979834</v>
       </c>
       <c r="G101">
-        <v>0.004779647439349635</v>
+        <v>0.05303471298865987</v>
       </c>
       <c r="H101">
-        <v>0.01955250412316586</v>
+        <v>-0.04561647147415395</v>
       </c>
       <c r="I101">
-        <v>0.006269211379093776</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>-0.005855798641586118</v>
+      </c>
+      <c r="J101">
+        <v>0.02801285308315568</v>
+      </c>
+      <c r="K101">
+        <v>0.03615980544791488</v>
+      </c>
+      <c r="L101">
+        <v>-0.002910106366956295</v>
+      </c>
+      <c r="M101">
+        <v>-0.01997245036365986</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3664,10 +4888,22 @@
       <c r="I102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3693,10 +4929,22 @@
       <c r="I103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3720,6 +4968,18 @@
         <v>0</v>
       </c>
       <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
